--- a/phage_sequences/summary_data/infectivity_with_protospacers.xlsx
+++ b/phage_sequences/summary_data/infectivity_with_protospacers.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8680" yWindow="1220" windowWidth="27760" windowHeight="16380" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="6660" yWindow="460" windowWidth="29920" windowHeight="18060" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="2.1" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,9 @@
     <sheet name="2.7" sheetId="7" r:id="rId6"/>
     <sheet name="2.11" sheetId="8" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'2.4'!$K$1:$K$61</definedName>
+  </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4712" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4280" uniqueCount="35">
   <si>
     <t>Replicate</t>
   </si>
@@ -219,8 +222,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -248,11 +253,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -528,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O49"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -585,7 +592,7 @@
         <v>2.1</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
@@ -594,7 +601,7 @@
         <v>8</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
@@ -603,7 +610,7 @@
         <v>9</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="s">
         <v>9</v>
@@ -626,7 +633,7 @@
         <v>2.1</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
@@ -635,7 +642,7 @@
         <v>10</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>
@@ -644,7 +651,7 @@
         <v>9</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="s">
         <v>9</v>
@@ -667,7 +674,7 @@
         <v>2.1</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
@@ -676,7 +683,7 @@
         <v>11</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="s">
         <v>24</v>
@@ -685,7 +692,7 @@
         <v>9</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="s">
         <v>9</v>
@@ -708,7 +715,7 @@
         <v>2.1</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
@@ -717,7 +724,7 @@
         <v>12</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="s">
         <v>24</v>
@@ -726,7 +733,7 @@
         <v>9</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="s">
         <v>9</v>
@@ -749,7 +756,7 @@
         <v>2.1</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
@@ -758,7 +765,7 @@
         <v>13</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
@@ -767,7 +774,7 @@
         <v>9</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="s">
         <v>9</v>
@@ -790,7 +797,7 @@
         <v>2.1</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
@@ -799,7 +806,7 @@
         <v>14</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="s">
         <v>24</v>
@@ -808,7 +815,7 @@
         <v>9</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="s">
         <v>9</v>
@@ -831,7 +838,7 @@
         <v>2.1</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>24</v>
@@ -840,7 +847,7 @@
         <v>15</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="s">
         <v>24</v>
@@ -849,7 +856,7 @@
         <v>9</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="s">
         <v>9</v>
@@ -872,7 +879,7 @@
         <v>2.1</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
@@ -881,7 +888,7 @@
         <v>16</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="s">
         <v>24</v>
@@ -890,7 +897,7 @@
         <v>9</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="s">
         <v>9</v>
@@ -913,7 +920,7 @@
         <v>2.1</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>24</v>
@@ -922,7 +929,7 @@
         <v>17</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="s">
         <v>24</v>
@@ -931,7 +938,7 @@
         <v>9</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="s">
         <v>9</v>
@@ -954,7 +961,7 @@
         <v>2.1</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
@@ -963,7 +970,7 @@
         <v>18</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="s">
         <v>24</v>
@@ -972,7 +979,7 @@
         <v>9</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="s">
         <v>9</v>
@@ -995,7 +1002,7 @@
         <v>2.1</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>24</v>
@@ -1004,7 +1011,7 @@
         <v>19</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="s">
         <v>24</v>
@@ -1013,7 +1020,7 @@
         <v>9</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="s">
         <v>9</v>
@@ -1036,7 +1043,7 @@
         <v>2.1</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>24</v>
@@ -1077,7 +1084,7 @@
         <v>2.1</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
         <v>24</v>
@@ -1086,7 +1093,7 @@
         <v>8</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="s">
         <v>24</v>
@@ -1095,7 +1102,7 @@
         <v>9</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="s">
         <v>9</v>
@@ -1118,7 +1125,7 @@
         <v>2.1</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
         <v>24</v>
@@ -1127,7 +1134,7 @@
         <v>10</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="s">
         <v>24</v>
@@ -1136,7 +1143,7 @@
         <v>9</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="s">
         <v>9</v>
@@ -1159,7 +1166,7 @@
         <v>2.1</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
@@ -1168,7 +1175,7 @@
         <v>11</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="s">
         <v>24</v>
@@ -1177,7 +1184,7 @@
         <v>9</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="s">
         <v>9</v>
@@ -1200,7 +1207,7 @@
         <v>2.1</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1209,7 +1216,7 @@
         <v>12</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="s">
         <v>24</v>
@@ -1218,7 +1225,7 @@
         <v>9</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="s">
         <v>9</v>
@@ -1241,7 +1248,7 @@
         <v>2.1</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
         <v>24</v>
@@ -1282,7 +1289,7 @@
         <v>2.1</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
         <v>24</v>
@@ -1291,7 +1298,7 @@
         <v>14</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="s">
         <v>24</v>
@@ -1300,7 +1307,7 @@
         <v>9</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="s">
         <v>9</v>
@@ -1323,7 +1330,7 @@
         <v>2.1</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
         <v>24</v>
@@ -1332,7 +1339,7 @@
         <v>15</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="s">
         <v>24</v>
@@ -1341,7 +1348,7 @@
         <v>9</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="s">
         <v>9</v>
@@ -1364,7 +1371,7 @@
         <v>2.1</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
         <v>24</v>
@@ -1373,7 +1380,7 @@
         <v>16</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="s">
         <v>24</v>
@@ -1382,7 +1389,7 @@
         <v>9</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="s">
         <v>9</v>
@@ -1405,7 +1412,7 @@
         <v>2.1</v>
       </c>
       <c r="B22">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
         <v>24</v>
@@ -1414,7 +1421,7 @@
         <v>17</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="s">
         <v>24</v>
@@ -1423,7 +1430,7 @@
         <v>9</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="s">
         <v>9</v>
@@ -1446,7 +1453,7 @@
         <v>2.1</v>
       </c>
       <c r="B23">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
         <v>24</v>
@@ -1455,7 +1462,7 @@
         <v>18</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="s">
         <v>24</v>
@@ -1464,7 +1471,7 @@
         <v>9</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="s">
         <v>9</v>
@@ -1487,7 +1494,7 @@
         <v>2.1</v>
       </c>
       <c r="B24">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
         <v>24</v>
@@ -1496,7 +1503,7 @@
         <v>19</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="s">
         <v>24</v>
@@ -1505,7 +1512,7 @@
         <v>9</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="s">
         <v>9</v>
@@ -1528,7 +1535,7 @@
         <v>2.1</v>
       </c>
       <c r="B25">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
         <v>24</v>
@@ -1561,990 +1568,6 @@
         <v>1</v>
       </c>
       <c r="O25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>2.1</v>
-      </c>
-      <c r="B26">
-        <v>7</v>
-      </c>
-      <c r="C26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G26" t="s">
-        <v>9</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26" t="s">
-        <v>9</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="M26" s="2">
-        <v>1</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>2.1</v>
-      </c>
-      <c r="B27">
-        <v>7</v>
-      </c>
-      <c r="C27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" t="s">
-        <v>9</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27" t="s">
-        <v>9</v>
-      </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="M27" s="2">
-        <v>1</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>2.1</v>
-      </c>
-      <c r="B28">
-        <v>7</v>
-      </c>
-      <c r="C28" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28" t="s">
-        <v>24</v>
-      </c>
-      <c r="G28" t="s">
-        <v>9</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28" t="s">
-        <v>9</v>
-      </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
-      <c r="M28" s="2">
-        <v>1</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>2.1</v>
-      </c>
-      <c r="B29">
-        <v>7</v>
-      </c>
-      <c r="C29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" t="s">
-        <v>9</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29" t="s">
-        <v>9</v>
-      </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="M29" s="2">
-        <v>1</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>2.1</v>
-      </c>
-      <c r="B30">
-        <v>7</v>
-      </c>
-      <c r="C30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30" t="s">
-        <v>24</v>
-      </c>
-      <c r="G30" t="s">
-        <v>9</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30" t="s">
-        <v>9</v>
-      </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-      <c r="M30" s="2">
-        <v>1</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>2.1</v>
-      </c>
-      <c r="B31">
-        <v>7</v>
-      </c>
-      <c r="C31" t="s">
-        <v>24</v>
-      </c>
-      <c r="D31" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31" t="s">
-        <v>24</v>
-      </c>
-      <c r="G31" t="s">
-        <v>9</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31" t="s">
-        <v>9</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="M31" s="2">
-        <v>1</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>2.1</v>
-      </c>
-      <c r="B32">
-        <v>7</v>
-      </c>
-      <c r="C32" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" t="s">
-        <v>15</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32" t="s">
-        <v>24</v>
-      </c>
-      <c r="G32" t="s">
-        <v>9</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32" t="s">
-        <v>9</v>
-      </c>
-      <c r="K32">
-        <v>1</v>
-      </c>
-      <c r="M32" s="2">
-        <v>1</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>2.1</v>
-      </c>
-      <c r="B33">
-        <v>7</v>
-      </c>
-      <c r="C33" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" t="s">
-        <v>16</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33" t="s">
-        <v>24</v>
-      </c>
-      <c r="G33" t="s">
-        <v>9</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33" t="s">
-        <v>9</v>
-      </c>
-      <c r="K33">
-        <v>1</v>
-      </c>
-      <c r="M33" s="2">
-        <v>1</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>2.1</v>
-      </c>
-      <c r="B34">
-        <v>7</v>
-      </c>
-      <c r="C34" t="s">
-        <v>24</v>
-      </c>
-      <c r="D34" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34" t="s">
-        <v>24</v>
-      </c>
-      <c r="G34" t="s">
-        <v>9</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34" t="s">
-        <v>9</v>
-      </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
-      <c r="M34" s="2">
-        <v>1</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>2.1</v>
-      </c>
-      <c r="B35">
-        <v>7</v>
-      </c>
-      <c r="C35" t="s">
-        <v>24</v>
-      </c>
-      <c r="D35" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35" t="s">
-        <v>24</v>
-      </c>
-      <c r="G35" t="s">
-        <v>9</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35" t="s">
-        <v>9</v>
-      </c>
-      <c r="K35">
-        <v>1</v>
-      </c>
-      <c r="M35" s="2">
-        <v>1</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>2.1</v>
-      </c>
-      <c r="B36">
-        <v>7</v>
-      </c>
-      <c r="C36" t="s">
-        <v>24</v>
-      </c>
-      <c r="D36" t="s">
-        <v>19</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36" t="s">
-        <v>24</v>
-      </c>
-      <c r="G36" t="s">
-        <v>9</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36" t="s">
-        <v>9</v>
-      </c>
-      <c r="K36">
-        <v>1</v>
-      </c>
-      <c r="M36" s="2">
-        <v>1</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>2.1</v>
-      </c>
-      <c r="B37">
-        <v>7</v>
-      </c>
-      <c r="C37" t="s">
-        <v>24</v>
-      </c>
-      <c r="D37" t="s">
-        <v>20</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37" t="s">
-        <v>24</v>
-      </c>
-      <c r="G37" t="s">
-        <v>9</v>
-      </c>
-      <c r="H37">
-        <v>1</v>
-      </c>
-      <c r="I37" t="s">
-        <v>9</v>
-      </c>
-      <c r="K37">
-        <v>1</v>
-      </c>
-      <c r="M37" s="2">
-        <v>1</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>2.1</v>
-      </c>
-      <c r="B38">
-        <v>8</v>
-      </c>
-      <c r="C38" t="s">
-        <v>24</v>
-      </c>
-      <c r="D38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38" t="s">
-        <v>24</v>
-      </c>
-      <c r="G38" t="s">
-        <v>9</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38" t="s">
-        <v>9</v>
-      </c>
-      <c r="K38">
-        <v>1</v>
-      </c>
-      <c r="M38" s="2">
-        <v>1</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>2.1</v>
-      </c>
-      <c r="B39">
-        <v>8</v>
-      </c>
-      <c r="C39" t="s">
-        <v>24</v>
-      </c>
-      <c r="D39" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39" t="s">
-        <v>24</v>
-      </c>
-      <c r="G39" t="s">
-        <v>9</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39" t="s">
-        <v>9</v>
-      </c>
-      <c r="K39">
-        <v>1</v>
-      </c>
-      <c r="M39" s="2">
-        <v>1</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>2.1</v>
-      </c>
-      <c r="B40">
-        <v>8</v>
-      </c>
-      <c r="C40" t="s">
-        <v>24</v>
-      </c>
-      <c r="D40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40" t="s">
-        <v>24</v>
-      </c>
-      <c r="G40" t="s">
-        <v>9</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40" t="s">
-        <v>9</v>
-      </c>
-      <c r="K40">
-        <v>1</v>
-      </c>
-      <c r="M40" s="2">
-        <v>1</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>2.1</v>
-      </c>
-      <c r="B41">
-        <v>8</v>
-      </c>
-      <c r="C41" t="s">
-        <v>24</v>
-      </c>
-      <c r="D41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41" t="s">
-        <v>24</v>
-      </c>
-      <c r="G41" t="s">
-        <v>9</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41" t="s">
-        <v>9</v>
-      </c>
-      <c r="K41">
-        <v>1</v>
-      </c>
-      <c r="M41" s="2">
-        <v>1</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>2.1</v>
-      </c>
-      <c r="B42">
-        <v>8</v>
-      </c>
-      <c r="C42" t="s">
-        <v>24</v>
-      </c>
-      <c r="D42" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42" t="s">
-        <v>24</v>
-      </c>
-      <c r="G42" t="s">
-        <v>9</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42" t="s">
-        <v>9</v>
-      </c>
-      <c r="K42">
-        <v>1</v>
-      </c>
-      <c r="M42" s="2">
-        <v>1</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>2.1</v>
-      </c>
-      <c r="B43">
-        <v>8</v>
-      </c>
-      <c r="C43" t="s">
-        <v>24</v>
-      </c>
-      <c r="D43" t="s">
-        <v>14</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43" t="s">
-        <v>24</v>
-      </c>
-      <c r="G43" t="s">
-        <v>9</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43" t="s">
-        <v>9</v>
-      </c>
-      <c r="K43">
-        <v>1</v>
-      </c>
-      <c r="M43" s="2">
-        <v>1</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>2.1</v>
-      </c>
-      <c r="B44">
-        <v>8</v>
-      </c>
-      <c r="C44" t="s">
-        <v>24</v>
-      </c>
-      <c r="D44" t="s">
-        <v>15</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44" t="s">
-        <v>24</v>
-      </c>
-      <c r="G44" t="s">
-        <v>9</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44" t="s">
-        <v>9</v>
-      </c>
-      <c r="K44">
-        <v>1</v>
-      </c>
-      <c r="M44" s="2">
-        <v>1</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>2.1</v>
-      </c>
-      <c r="B45">
-        <v>8</v>
-      </c>
-      <c r="C45" t="s">
-        <v>24</v>
-      </c>
-      <c r="D45" t="s">
-        <v>16</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-      <c r="F45" t="s">
-        <v>24</v>
-      </c>
-      <c r="G45" t="s">
-        <v>9</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45" t="s">
-        <v>9</v>
-      </c>
-      <c r="K45">
-        <v>1</v>
-      </c>
-      <c r="M45" s="2">
-        <v>1</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>2.1</v>
-      </c>
-      <c r="B46">
-        <v>8</v>
-      </c>
-      <c r="C46" t="s">
-        <v>24</v>
-      </c>
-      <c r="D46" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-      <c r="F46" t="s">
-        <v>24</v>
-      </c>
-      <c r="G46" t="s">
-        <v>9</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46" t="s">
-        <v>9</v>
-      </c>
-      <c r="K46">
-        <v>1</v>
-      </c>
-      <c r="M46" s="2">
-        <v>1</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>2.1</v>
-      </c>
-      <c r="B47">
-        <v>8</v>
-      </c>
-      <c r="C47" t="s">
-        <v>24</v>
-      </c>
-      <c r="D47" t="s">
-        <v>18</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-      <c r="F47" t="s">
-        <v>24</v>
-      </c>
-      <c r="G47" t="s">
-        <v>9</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47" t="s">
-        <v>9</v>
-      </c>
-      <c r="K47">
-        <v>1</v>
-      </c>
-      <c r="M47" s="2">
-        <v>1</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="O47" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>2.1</v>
-      </c>
-      <c r="B48">
-        <v>8</v>
-      </c>
-      <c r="C48" t="s">
-        <v>24</v>
-      </c>
-      <c r="D48" t="s">
-        <v>19</v>
-      </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
-      <c r="F48" t="s">
-        <v>24</v>
-      </c>
-      <c r="G48" t="s">
-        <v>9</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48" t="s">
-        <v>9</v>
-      </c>
-      <c r="K48">
-        <v>1</v>
-      </c>
-      <c r="M48" s="2">
-        <v>1</v>
-      </c>
-      <c r="N48">
-        <v>1</v>
-      </c>
-      <c r="O48" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>2.1</v>
-      </c>
-      <c r="B49">
-        <v>8</v>
-      </c>
-      <c r="C49" t="s">
-        <v>24</v>
-      </c>
-      <c r="D49" t="s">
-        <v>20</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49" t="s">
-        <v>24</v>
-      </c>
-      <c r="G49" t="s">
-        <v>9</v>
-      </c>
-      <c r="H49">
-        <v>1</v>
-      </c>
-      <c r="I49" t="s">
-        <v>9</v>
-      </c>
-      <c r="K49">
-        <v>1</v>
-      </c>
-      <c r="M49" s="2">
-        <v>1</v>
-      </c>
-      <c r="N49">
-        <v>1</v>
-      </c>
-      <c r="O49" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2560,12 +1583,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I86" sqref="I86:I109"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J97" sqref="J97:J109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="9" max="9" width="16.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -2686,7 +1712,16 @@
       <c r="I3" t="s">
         <v>9</v>
       </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
       <c r="M3" s="2">
+        <v>1</v>
+      </c>
+      <c r="N3">
         <v>1</v>
       </c>
       <c r="O3" t="s">
@@ -2765,7 +1800,16 @@
       <c r="I5" t="s">
         <v>9</v>
       </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
       <c r="M5" s="2">
+        <v>1</v>
+      </c>
+      <c r="N5">
         <v>1</v>
       </c>
       <c r="O5" t="s">
@@ -2800,7 +1844,16 @@
       <c r="I6" t="s">
         <v>9</v>
       </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
       <c r="M6" s="2">
+        <v>1</v>
+      </c>
+      <c r="N6">
         <v>1</v>
       </c>
       <c r="O6" t="s">
@@ -2923,7 +1976,16 @@
       <c r="I9" t="s">
         <v>9</v>
       </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
       <c r="M9" s="2">
+        <v>1</v>
+      </c>
+      <c r="N9">
         <v>1</v>
       </c>
       <c r="O9" t="s">
@@ -3002,7 +2064,16 @@
       <c r="I11" t="s">
         <v>9</v>
       </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
       <c r="M11" s="2">
+        <v>1</v>
+      </c>
+      <c r="N11">
         <v>1</v>
       </c>
       <c r="O11" t="s">
@@ -3037,7 +2108,16 @@
       <c r="I12" t="s">
         <v>9</v>
       </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
       <c r="M12" s="2">
+        <v>1</v>
+      </c>
+      <c r="N12">
         <v>1</v>
       </c>
       <c r="O12" t="s">
@@ -3204,7 +2284,16 @@
       <c r="I16" t="s">
         <v>9</v>
       </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
       <c r="M16" s="2">
+        <v>1</v>
+      </c>
+      <c r="N16">
         <v>1</v>
       </c>
       <c r="O16" t="s">
@@ -3327,7 +2416,16 @@
       <c r="I19" t="s">
         <v>9</v>
       </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
       <c r="M19" s="2">
+        <v>1</v>
+      </c>
+      <c r="N19">
         <v>1</v>
       </c>
       <c r="O19" t="s">
@@ -3362,7 +2460,16 @@
       <c r="I20" t="s">
         <v>9</v>
       </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
       <c r="M20" s="2">
+        <v>1</v>
+      </c>
+      <c r="N20">
         <v>1</v>
       </c>
       <c r="O20" t="s">
@@ -3441,7 +2548,16 @@
       <c r="I22" t="s">
         <v>9</v>
       </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
       <c r="M22" s="2">
+        <v>1</v>
+      </c>
+      <c r="N22">
         <v>1</v>
       </c>
       <c r="O22" t="s">
@@ -3564,7 +2680,16 @@
       <c r="I25" t="s">
         <v>9</v>
       </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
       <c r="M25" s="2">
+        <v>1</v>
+      </c>
+      <c r="N25">
         <v>1</v>
       </c>
       <c r="O25" t="s">
@@ -6719,11 +5844,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O217"/>
+  <dimension ref="A1:O193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1" sqref="K1"/>
+      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J186" sqref="J186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8276,16 +7401,7 @@
       <c r="I44" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J44">
-        <v>1</v>
-      </c>
-      <c r="L44">
-        <v>1</v>
-      </c>
       <c r="M44" s="2">
-        <v>1</v>
-      </c>
-      <c r="N44">
         <v>1</v>
       </c>
       <c r="O44" t="s">
@@ -8355,16 +7471,7 @@
       <c r="I46" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J46">
-        <v>1</v>
-      </c>
-      <c r="L46">
-        <v>1</v>
-      </c>
       <c r="M46" s="2">
-        <v>1</v>
-      </c>
-      <c r="N46">
         <v>1</v>
       </c>
       <c r="O46" t="s">
@@ -8469,16 +7576,7 @@
       <c r="I49" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J49">
-        <v>1</v>
-      </c>
-      <c r="L49">
-        <v>1</v>
-      </c>
       <c r="M49" s="2">
-        <v>1</v>
-      </c>
-      <c r="N49">
         <v>1</v>
       </c>
       <c r="O49" t="s">
@@ -8723,16 +7821,7 @@
       <c r="I56" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J56">
-        <v>1</v>
-      </c>
-      <c r="L56">
-        <v>1</v>
-      </c>
       <c r="M56" s="2">
-        <v>1</v>
-      </c>
-      <c r="N56">
         <v>1</v>
       </c>
       <c r="O56" t="s">
@@ -8802,16 +7891,7 @@
       <c r="I58" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J58">
-        <v>1</v>
-      </c>
-      <c r="L58">
-        <v>1</v>
-      </c>
       <c r="M58" s="2">
-        <v>1</v>
-      </c>
-      <c r="N58">
         <v>1</v>
       </c>
       <c r="O58" t="s">
@@ -8916,16 +7996,7 @@
       <c r="I61" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J61">
-        <v>1</v>
-      </c>
-      <c r="L61">
-        <v>1</v>
-      </c>
       <c r="M61" s="2">
-        <v>1</v>
-      </c>
-      <c r="N61">
         <v>1</v>
       </c>
       <c r="O61" t="s">
@@ -9357,7 +8428,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C74" t="s">
         <v>22</v>
@@ -9392,7 +8463,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C75" t="s">
         <v>22</v>
@@ -9427,7 +8498,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C76" t="s">
         <v>22</v>
@@ -9462,7 +8533,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C77" t="s">
         <v>22</v>
@@ -9497,7 +8568,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C78" t="s">
         <v>22</v>
@@ -9532,7 +8603,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C79" t="s">
         <v>22</v>
@@ -9556,9 +8627,6 @@
         <v>25</v>
       </c>
       <c r="J79">
-        <v>1</v>
-      </c>
-      <c r="L79">
         <v>1</v>
       </c>
       <c r="M79" s="2">
@@ -9576,7 +8644,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C80" t="s">
         <v>22</v>
@@ -9620,7 +8688,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C81" t="s">
         <v>22</v>
@@ -9655,7 +8723,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C82" t="s">
         <v>22</v>
@@ -9699,7 +8767,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C83" t="s">
         <v>22</v>
@@ -9734,7 +8802,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C84" t="s">
         <v>22</v>
@@ -9769,7 +8837,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C85" t="s">
         <v>22</v>
@@ -9813,7 +8881,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B86">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C86" t="s">
         <v>22</v>
@@ -9822,7 +8890,7 @@
         <v>8</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86" t="s">
         <v>24</v>
@@ -9831,7 +8899,7 @@
         <v>23</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="s">
         <v>25</v>
@@ -9848,7 +8916,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B87">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C87" t="s">
         <v>22</v>
@@ -9883,7 +8951,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C88" t="s">
         <v>22</v>
@@ -9918,7 +8986,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B89">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C89" t="s">
         <v>22</v>
@@ -9953,7 +9021,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C90" t="s">
         <v>22</v>
@@ -9988,7 +9056,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B91">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C91" t="s">
         <v>22</v>
@@ -10011,13 +9079,7 @@
       <c r="I91" t="s">
         <v>25</v>
       </c>
-      <c r="J91">
-        <v>1</v>
-      </c>
       <c r="M91" s="2">
-        <v>1</v>
-      </c>
-      <c r="N91">
         <v>1</v>
       </c>
       <c r="O91" t="s">
@@ -10029,7 +9091,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B92">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C92" t="s">
         <v>22</v>
@@ -10038,7 +9100,7 @@
         <v>15</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92" t="s">
         <v>24</v>
@@ -10047,21 +9109,12 @@
         <v>23</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="s">
         <v>25</v>
       </c>
-      <c r="J92">
-        <v>1</v>
-      </c>
-      <c r="L92">
-        <v>1</v>
-      </c>
       <c r="M92" s="2">
-        <v>1</v>
-      </c>
-      <c r="N92">
         <v>1</v>
       </c>
       <c r="O92" t="s">
@@ -10073,7 +9126,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C93" t="s">
         <v>22</v>
@@ -10108,7 +9161,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C94" t="s">
         <v>22</v>
@@ -10131,16 +9184,7 @@
       <c r="I94" t="s">
         <v>25</v>
       </c>
-      <c r="J94">
-        <v>1</v>
-      </c>
-      <c r="L94">
-        <v>1</v>
-      </c>
       <c r="M94" s="2">
-        <v>1</v>
-      </c>
-      <c r="N94">
         <v>1</v>
       </c>
       <c r="O94" t="s">
@@ -10152,7 +9196,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C95" t="s">
         <v>22</v>
@@ -10187,7 +9231,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B96">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C96" t="s">
         <v>22</v>
@@ -10222,7 +9266,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B97">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C97" t="s">
         <v>22</v>
@@ -10245,16 +9289,7 @@
       <c r="I97" t="s">
         <v>25</v>
       </c>
-      <c r="J97">
-        <v>1</v>
-      </c>
-      <c r="L97">
-        <v>1</v>
-      </c>
       <c r="M97" s="2">
-        <v>1</v>
-      </c>
-      <c r="N97">
         <v>1</v>
       </c>
       <c r="O97" t="s">
@@ -10266,7 +9301,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B98">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
         <v>22</v>
@@ -10275,7 +9310,7 @@
         <v>8</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98" t="s">
         <v>24</v>
@@ -10284,7 +9319,7 @@
         <v>23</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="s">
         <v>25</v>
@@ -10301,7 +9336,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B99">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
         <v>22</v>
@@ -10336,7 +9371,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B100">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
         <v>22</v>
@@ -10371,7 +9406,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B101">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
         <v>22</v>
@@ -10406,7 +9441,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B102">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
         <v>22</v>
@@ -10441,7 +9476,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B103">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
         <v>22</v>
@@ -10450,7 +9485,7 @@
         <v>14</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103" t="s">
         <v>24</v>
@@ -10459,10 +9494,13 @@
         <v>23</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="s">
         <v>25</v>
+      </c>
+      <c r="J103">
+        <v>1</v>
       </c>
       <c r="M103" s="2">
         <v>1</v>
@@ -10476,7 +9514,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B104">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
         <v>22</v>
@@ -10485,7 +9523,7 @@
         <v>15</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F104" t="s">
         <v>24</v>
@@ -10494,7 +9532,7 @@
         <v>23</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="s">
         <v>25</v>
@@ -10514,7 +9552,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B105">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
         <v>22</v>
@@ -10549,7 +9587,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B106">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
         <v>22</v>
@@ -10558,7 +9596,7 @@
         <v>17</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106" t="s">
         <v>24</v>
@@ -10567,7 +9605,7 @@
         <v>23</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="s">
         <v>25</v>
@@ -10587,7 +9625,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B107">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
         <v>22</v>
@@ -10622,7 +9660,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B108">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
         <v>22</v>
@@ -10657,7 +9695,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B109">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
         <v>22</v>
@@ -10666,7 +9704,7 @@
         <v>20</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109" t="s">
         <v>24</v>
@@ -10675,7 +9713,7 @@
         <v>23</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="s">
         <v>25</v>
@@ -10695,7 +9733,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B110">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C110" t="s">
         <v>22</v>
@@ -10704,7 +9742,7 @@
         <v>8</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110" t="s">
         <v>24</v>
@@ -10713,7 +9751,7 @@
         <v>23</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="s">
         <v>25</v>
@@ -10730,7 +9768,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B111">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C111" t="s">
         <v>22</v>
@@ -10765,7 +9803,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B112">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C112" t="s">
         <v>22</v>
@@ -10800,7 +9838,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B113">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C113" t="s">
         <v>22</v>
@@ -10835,7 +9873,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B114">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C114" t="s">
         <v>22</v>
@@ -10870,7 +9908,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B115">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C115" t="s">
         <v>22</v>
@@ -10893,16 +9931,7 @@
       <c r="I115" t="s">
         <v>25</v>
       </c>
-      <c r="J115">
-        <v>1</v>
-      </c>
-      <c r="L115">
-        <v>1</v>
-      </c>
       <c r="M115" s="2">
-        <v>1</v>
-      </c>
-      <c r="N115">
         <v>1</v>
       </c>
       <c r="O115" t="s">
@@ -10914,7 +9943,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B116">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C116" t="s">
         <v>22</v>
@@ -10937,16 +9966,7 @@
       <c r="I116" t="s">
         <v>25</v>
       </c>
-      <c r="J116">
-        <v>1</v>
-      </c>
-      <c r="L116">
-        <v>1</v>
-      </c>
       <c r="M116" s="2">
-        <v>1</v>
-      </c>
-      <c r="N116">
         <v>1</v>
       </c>
       <c r="O116" t="s">
@@ -10958,7 +9978,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B117">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C117" t="s">
         <v>22</v>
@@ -10993,7 +10013,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B118">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C118" t="s">
         <v>22</v>
@@ -11016,16 +10036,7 @@
       <c r="I118" t="s">
         <v>25</v>
       </c>
-      <c r="J118">
-        <v>1</v>
-      </c>
-      <c r="L118">
-        <v>1</v>
-      </c>
       <c r="M118" s="2">
-        <v>1</v>
-      </c>
-      <c r="N118">
         <v>1</v>
       </c>
       <c r="O118" t="s">
@@ -11037,7 +10048,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B119">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C119" t="s">
         <v>22</v>
@@ -11072,7 +10083,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B120">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C120" t="s">
         <v>22</v>
@@ -11107,7 +10118,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B121">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C121" t="s">
         <v>22</v>
@@ -11130,16 +10141,7 @@
       <c r="I121" t="s">
         <v>25</v>
       </c>
-      <c r="J121">
-        <v>1</v>
-      </c>
-      <c r="L121">
-        <v>1</v>
-      </c>
       <c r="M121" s="2">
-        <v>1</v>
-      </c>
-      <c r="N121">
         <v>1</v>
       </c>
       <c r="O121" t="s">
@@ -11151,7 +10153,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B122">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C122" t="s">
         <v>22</v>
@@ -11186,7 +10188,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B123">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C123" t="s">
         <v>22</v>
@@ -11221,7 +10223,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B124">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C124" t="s">
         <v>22</v>
@@ -11256,7 +10258,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B125">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C125" t="s">
         <v>22</v>
@@ -11291,7 +10293,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B126">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C126" t="s">
         <v>22</v>
@@ -11326,7 +10328,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B127">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C127" t="s">
         <v>22</v>
@@ -11352,7 +10354,13 @@
       <c r="J127">
         <v>1</v>
       </c>
+      <c r="L127">
+        <v>1</v>
+      </c>
       <c r="M127" s="2">
+        <v>1</v>
+      </c>
+      <c r="N127">
         <v>1</v>
       </c>
       <c r="O127" t="s">
@@ -11364,7 +10372,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B128">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C128" t="s">
         <v>22</v>
@@ -11390,7 +10398,13 @@
       <c r="J128">
         <v>1</v>
       </c>
+      <c r="L128">
+        <v>1</v>
+      </c>
       <c r="M128" s="2">
+        <v>1</v>
+      </c>
+      <c r="N128">
         <v>1</v>
       </c>
       <c r="O128" t="s">
@@ -11402,7 +10416,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B129">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C129" t="s">
         <v>22</v>
@@ -11437,7 +10451,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B130">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C130" t="s">
         <v>22</v>
@@ -11463,7 +10477,13 @@
       <c r="J130">
         <v>1</v>
       </c>
+      <c r="L130">
+        <v>1</v>
+      </c>
       <c r="M130" s="2">
+        <v>1</v>
+      </c>
+      <c r="N130">
         <v>1</v>
       </c>
       <c r="O130" t="s">
@@ -11475,7 +10495,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B131">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C131" t="s">
         <v>22</v>
@@ -11510,7 +10530,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B132">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C132" t="s">
         <v>22</v>
@@ -11545,7 +10565,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B133">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C133" t="s">
         <v>22</v>
@@ -11571,7 +10591,13 @@
       <c r="J133">
         <v>1</v>
       </c>
+      <c r="L133">
+        <v>1</v>
+      </c>
       <c r="M133" s="2">
+        <v>1</v>
+      </c>
+      <c r="N133">
         <v>1</v>
       </c>
       <c r="O133" t="s">
@@ -11583,7 +10609,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B134">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C134" t="s">
         <v>22</v>
@@ -11592,7 +10618,7 @@
         <v>8</v>
       </c>
       <c r="E134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134" t="s">
         <v>24</v>
@@ -11601,7 +10627,7 @@
         <v>23</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134" t="s">
         <v>25</v>
@@ -11618,7 +10644,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B135">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C135" t="s">
         <v>22</v>
@@ -11653,7 +10679,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B136">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C136" t="s">
         <v>22</v>
@@ -11688,7 +10714,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B137">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C137" t="s">
         <v>22</v>
@@ -11723,7 +10749,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B138">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C138" t="s">
         <v>22</v>
@@ -11758,7 +10784,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B139">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C139" t="s">
         <v>22</v>
@@ -11781,7 +10807,16 @@
       <c r="I139" t="s">
         <v>25</v>
       </c>
+      <c r="J139">
+        <v>1</v>
+      </c>
+      <c r="L139">
+        <v>1</v>
+      </c>
       <c r="M139" s="2">
+        <v>1</v>
+      </c>
+      <c r="N139">
         <v>1</v>
       </c>
       <c r="O139" t="s">
@@ -11793,7 +10828,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B140">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C140" t="s">
         <v>22</v>
@@ -11816,7 +10851,16 @@
       <c r="I140" t="s">
         <v>25</v>
       </c>
+      <c r="J140">
+        <v>1</v>
+      </c>
+      <c r="L140">
+        <v>1</v>
+      </c>
       <c r="M140" s="2">
+        <v>1</v>
+      </c>
+      <c r="N140">
         <v>1</v>
       </c>
       <c r="O140" t="s">
@@ -11828,7 +10872,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B141">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C141" t="s">
         <v>22</v>
@@ -11863,7 +10907,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B142">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C142" t="s">
         <v>22</v>
@@ -11872,7 +10916,7 @@
         <v>17</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F142" t="s">
         <v>24</v>
@@ -11881,12 +10925,21 @@
         <v>23</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="s">
         <v>25</v>
       </c>
+      <c r="J142">
+        <v>1</v>
+      </c>
+      <c r="L142">
+        <v>1</v>
+      </c>
       <c r="M142" s="2">
+        <v>1</v>
+      </c>
+      <c r="N142">
         <v>1</v>
       </c>
       <c r="O142" t="s">
@@ -11898,7 +10951,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B143">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C143" t="s">
         <v>22</v>
@@ -11933,7 +10986,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B144">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C144" t="s">
         <v>22</v>
@@ -11968,7 +11021,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B145">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C145" t="s">
         <v>22</v>
@@ -11991,7 +11044,16 @@
       <c r="I145" t="s">
         <v>25</v>
       </c>
+      <c r="J145">
+        <v>1</v>
+      </c>
+      <c r="L145">
+        <v>1</v>
+      </c>
       <c r="M145" s="2">
+        <v>1</v>
+      </c>
+      <c r="N145">
         <v>1</v>
       </c>
       <c r="O145" t="s">
@@ -12003,10 +11065,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B146">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C146" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D146" t="s">
         <v>8</v>
@@ -12018,16 +11080,16 @@
         <v>24</v>
       </c>
       <c r="G146" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="H146">
         <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>25</v>
-      </c>
-      <c r="M146" s="2">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="M146" s="3">
+        <v>3</v>
       </c>
       <c r="O146" t="s">
         <v>33</v>
@@ -12038,10 +11100,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B147">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C147" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D147" t="s">
         <v>10</v>
@@ -12053,15 +11115,24 @@
         <v>24</v>
       </c>
       <c r="G147" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="H147">
         <v>1</v>
       </c>
       <c r="I147" t="s">
-        <v>25</v>
-      </c>
-      <c r="M147" s="2">
+        <v>9</v>
+      </c>
+      <c r="J147">
+        <v>1</v>
+      </c>
+      <c r="L147">
+        <v>1</v>
+      </c>
+      <c r="M147" s="3">
+        <v>3</v>
+      </c>
+      <c r="N147">
         <v>1</v>
       </c>
       <c r="O147" t="s">
@@ -12073,10 +11144,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B148">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C148" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D148" t="s">
         <v>11</v>
@@ -12088,15 +11159,24 @@
         <v>24</v>
       </c>
       <c r="G148" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="H148">
         <v>1</v>
       </c>
       <c r="I148" t="s">
-        <v>25</v>
-      </c>
-      <c r="M148" s="2">
+        <v>9</v>
+      </c>
+      <c r="J148">
+        <v>1</v>
+      </c>
+      <c r="L148">
+        <v>1</v>
+      </c>
+      <c r="M148" s="3">
+        <v>3</v>
+      </c>
+      <c r="N148">
         <v>1</v>
       </c>
       <c r="O148" t="s">
@@ -12108,10 +11188,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B149">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C149" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D149" t="s">
         <v>12</v>
@@ -12123,15 +11203,24 @@
         <v>24</v>
       </c>
       <c r="G149" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="H149">
         <v>1</v>
       </c>
       <c r="I149" t="s">
-        <v>25</v>
-      </c>
-      <c r="M149" s="2">
+        <v>9</v>
+      </c>
+      <c r="J149">
+        <v>1</v>
+      </c>
+      <c r="L149">
+        <v>1</v>
+      </c>
+      <c r="M149" s="3">
+        <v>3</v>
+      </c>
+      <c r="N149">
         <v>1</v>
       </c>
       <c r="O149" t="s">
@@ -12143,10 +11232,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B150">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C150" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D150" t="s">
         <v>13</v>
@@ -12158,15 +11247,24 @@
         <v>24</v>
       </c>
       <c r="G150" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="H150">
         <v>1</v>
       </c>
       <c r="I150" t="s">
-        <v>25</v>
-      </c>
-      <c r="M150" s="2">
+        <v>9</v>
+      </c>
+      <c r="J150">
+        <v>1</v>
+      </c>
+      <c r="L150">
+        <v>1</v>
+      </c>
+      <c r="M150" s="3">
+        <v>3</v>
+      </c>
+      <c r="N150">
         <v>1</v>
       </c>
       <c r="O150" t="s">
@@ -12178,37 +11276,34 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B151">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C151" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D151" t="s">
         <v>14</v>
       </c>
       <c r="E151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F151" t="s">
         <v>24</v>
       </c>
       <c r="G151" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I151" t="s">
-        <v>25</v>
-      </c>
-      <c r="J151">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="L151">
         <v>1</v>
       </c>
-      <c r="M151" s="2">
-        <v>1</v>
+      <c r="M151" s="3">
+        <v>3</v>
       </c>
       <c r="N151">
         <v>1</v>
@@ -12222,28 +11317,28 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B152">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C152" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D152" t="s">
         <v>15</v>
       </c>
       <c r="E152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152" t="s">
         <v>24</v>
       </c>
       <c r="G152" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I152" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="J152">
         <v>1</v>
@@ -12251,8 +11346,8 @@
       <c r="L152">
         <v>1</v>
       </c>
-      <c r="M152" s="2">
-        <v>1</v>
+      <c r="M152" s="3">
+        <v>3</v>
       </c>
       <c r="N152">
         <v>1</v>
@@ -12266,10 +11361,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B153">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C153" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D153" t="s">
         <v>16</v>
@@ -12281,13 +11376,13 @@
         <v>24</v>
       </c>
       <c r="G153" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="H153">
         <v>1</v>
       </c>
       <c r="I153" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="M153" s="2">
         <v>1</v>
@@ -12301,28 +11396,28 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B154">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C154" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D154" t="s">
         <v>17</v>
       </c>
       <c r="E154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F154" t="s">
         <v>24</v>
       </c>
       <c r="G154" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I154" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="J154">
         <v>1</v>
@@ -12330,8 +11425,8 @@
       <c r="L154">
         <v>1</v>
       </c>
-      <c r="M154" s="2">
-        <v>1</v>
+      <c r="M154" s="3">
+        <v>3</v>
       </c>
       <c r="N154">
         <v>1</v>
@@ -12345,10 +11440,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B155">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C155" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D155" t="s">
         <v>18</v>
@@ -12360,15 +11455,24 @@
         <v>24</v>
       </c>
       <c r="G155" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="H155">
         <v>1</v>
       </c>
       <c r="I155" t="s">
-        <v>25</v>
-      </c>
-      <c r="M155" s="2">
+        <v>9</v>
+      </c>
+      <c r="J155">
+        <v>1</v>
+      </c>
+      <c r="L155">
+        <v>1</v>
+      </c>
+      <c r="M155" s="5">
+        <v>2</v>
+      </c>
+      <c r="N155">
         <v>1</v>
       </c>
       <c r="O155" t="s">
@@ -12380,10 +11484,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B156">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C156" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D156" t="s">
         <v>19</v>
@@ -12395,15 +11499,24 @@
         <v>24</v>
       </c>
       <c r="G156" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="H156">
         <v>1</v>
       </c>
       <c r="I156" t="s">
-        <v>25</v>
-      </c>
-      <c r="M156" s="2">
+        <v>9</v>
+      </c>
+      <c r="J156">
+        <v>1</v>
+      </c>
+      <c r="L156">
+        <v>1</v>
+      </c>
+      <c r="M156" s="3">
+        <v>3</v>
+      </c>
+      <c r="N156">
         <v>1</v>
       </c>
       <c r="O156" t="s">
@@ -12415,28 +11528,28 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B157">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C157" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D157" t="s">
         <v>20</v>
       </c>
       <c r="E157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F157" t="s">
         <v>24</v>
       </c>
       <c r="G157" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="J157">
         <v>1</v>
@@ -12444,8 +11557,8 @@
       <c r="L157">
         <v>1</v>
       </c>
-      <c r="M157" s="2">
-        <v>1</v>
+      <c r="M157" s="3">
+        <v>3</v>
       </c>
       <c r="N157">
         <v>1</v>
@@ -12459,10 +11572,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B158">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C158" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D158" t="s">
         <v>8</v>
@@ -12474,16 +11587,16 @@
         <v>24</v>
       </c>
       <c r="G158" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="H158">
         <v>1</v>
       </c>
       <c r="I158" t="s">
-        <v>25</v>
-      </c>
-      <c r="M158" s="2">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="M158" s="3">
+        <v>3</v>
       </c>
       <c r="O158" t="s">
         <v>33</v>
@@ -12494,10 +11607,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B159">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C159" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D159" t="s">
         <v>10</v>
@@ -12509,16 +11622,16 @@
         <v>24</v>
       </c>
       <c r="G159" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="H159">
         <v>1</v>
       </c>
       <c r="I159" t="s">
-        <v>25</v>
-      </c>
-      <c r="M159" s="2">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="M159" s="3">
+        <v>3</v>
       </c>
       <c r="O159" t="s">
         <v>33</v>
@@ -12529,10 +11642,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B160">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C160" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D160" t="s">
         <v>11</v>
@@ -12544,16 +11657,16 @@
         <v>24</v>
       </c>
       <c r="G160" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="H160">
         <v>1</v>
       </c>
       <c r="I160" t="s">
-        <v>25</v>
-      </c>
-      <c r="M160" s="2">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="M160" s="3">
+        <v>3</v>
       </c>
       <c r="O160" t="s">
         <v>33</v>
@@ -12564,10 +11677,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B161">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C161" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D161" t="s">
         <v>12</v>
@@ -12579,16 +11692,16 @@
         <v>24</v>
       </c>
       <c r="G161" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="H161">
         <v>1</v>
       </c>
       <c r="I161" t="s">
-        <v>25</v>
-      </c>
-      <c r="M161" s="2">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="M161" s="3">
+        <v>3</v>
       </c>
       <c r="O161" t="s">
         <v>33</v>
@@ -12599,10 +11712,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B162">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C162" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D162" t="s">
         <v>13</v>
@@ -12614,16 +11727,16 @@
         <v>24</v>
       </c>
       <c r="G162" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="H162">
         <v>1</v>
       </c>
       <c r="I162" t="s">
-        <v>25</v>
-      </c>
-      <c r="M162" s="2">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="M162" s="3">
+        <v>3</v>
       </c>
       <c r="O162" t="s">
         <v>33</v>
@@ -12634,28 +11747,28 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B163">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C163" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D163" t="s">
         <v>14</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F163" t="s">
         <v>24</v>
       </c>
       <c r="G163" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="J163">
         <v>1</v>
@@ -12663,8 +11776,8 @@
       <c r="L163">
         <v>1</v>
       </c>
-      <c r="M163" s="2">
-        <v>1</v>
+      <c r="M163" s="3">
+        <v>3</v>
       </c>
       <c r="N163">
         <v>1</v>
@@ -12678,10 +11791,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B164">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C164" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D164" t="s">
         <v>15</v>
@@ -12693,25 +11806,16 @@
         <v>24</v>
       </c>
       <c r="G164" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="H164">
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>25</v>
-      </c>
-      <c r="J164">
-        <v>1</v>
-      </c>
-      <c r="L164">
-        <v>1</v>
-      </c>
-      <c r="M164" s="2">
-        <v>1</v>
-      </c>
-      <c r="N164">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="M164" s="3">
+        <v>3</v>
       </c>
       <c r="O164" t="s">
         <v>33</v>
@@ -12722,10 +11826,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B165">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C165" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D165" t="s">
         <v>16</v>
@@ -12737,13 +11841,13 @@
         <v>24</v>
       </c>
       <c r="G165" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="H165">
         <v>1</v>
       </c>
       <c r="I165" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="M165" s="2">
         <v>1</v>
@@ -12757,40 +11861,31 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B166">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C166" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D166" t="s">
         <v>17</v>
       </c>
       <c r="E166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F166" t="s">
         <v>24</v>
       </c>
       <c r="G166" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I166" t="s">
-        <v>25</v>
-      </c>
-      <c r="J166">
-        <v>1</v>
-      </c>
-      <c r="L166">
-        <v>1</v>
-      </c>
-      <c r="M166" s="2">
-        <v>1</v>
-      </c>
-      <c r="N166">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="M166" s="3">
+        <v>3</v>
       </c>
       <c r="O166" t="s">
         <v>33</v>
@@ -12801,10 +11896,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B167">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C167" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D167" t="s">
         <v>18</v>
@@ -12816,16 +11911,16 @@
         <v>24</v>
       </c>
       <c r="G167" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="H167">
         <v>1</v>
       </c>
       <c r="I167" t="s">
-        <v>25</v>
-      </c>
-      <c r="M167" s="2">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="M167" s="5">
+        <v>2</v>
       </c>
       <c r="O167" t="s">
         <v>33</v>
@@ -12836,10 +11931,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B168">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C168" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D168" t="s">
         <v>19</v>
@@ -12851,16 +11946,16 @@
         <v>24</v>
       </c>
       <c r="G168" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="H168">
         <v>1</v>
       </c>
       <c r="I168" t="s">
-        <v>25</v>
-      </c>
-      <c r="M168" s="2">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="M168" s="3">
+        <v>3</v>
       </c>
       <c r="O168" t="s">
         <v>33</v>
@@ -12871,10 +11966,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B169">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C169" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D169" t="s">
         <v>20</v>
@@ -12886,25 +11981,16 @@
         <v>24</v>
       </c>
       <c r="G169" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="H169">
         <v>1</v>
       </c>
       <c r="I169" t="s">
-        <v>25</v>
-      </c>
-      <c r="J169">
-        <v>1</v>
-      </c>
-      <c r="L169">
-        <v>1</v>
-      </c>
-      <c r="M169" s="2">
-        <v>1</v>
-      </c>
-      <c r="N169">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="M169" s="3">
+        <v>3</v>
       </c>
       <c r="O169" t="s">
         <v>33</v>
@@ -12915,7 +12001,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B170">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
         <v>24</v>
@@ -12950,7 +12036,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B171">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
         <v>24</v>
@@ -12959,7 +12045,7 @@
         <v>10</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F171" t="s">
         <v>24</v>
@@ -12968,7 +12054,7 @@
         <v>9</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="s">
         <v>9</v>
@@ -12977,13 +12063,13 @@
         <v>1</v>
       </c>
       <c r="L171">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M171" s="3">
         <v>3</v>
       </c>
       <c r="N171">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O171" t="s">
         <v>33</v>
@@ -12994,7 +12080,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B172">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
         <v>24</v>
@@ -13003,7 +12089,7 @@
         <v>11</v>
       </c>
       <c r="E172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F172" t="s">
         <v>24</v>
@@ -13012,7 +12098,7 @@
         <v>9</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="s">
         <v>9</v>
@@ -13021,13 +12107,13 @@
         <v>1</v>
       </c>
       <c r="L172">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M172" s="3">
         <v>3</v>
       </c>
       <c r="N172">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O172" t="s">
         <v>33</v>
@@ -13038,7 +12124,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B173">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
         <v>24</v>
@@ -13047,7 +12133,7 @@
         <v>12</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F173" t="s">
         <v>24</v>
@@ -13056,7 +12142,7 @@
         <v>9</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="s">
         <v>9</v>
@@ -13065,13 +12151,13 @@
         <v>1</v>
       </c>
       <c r="L173">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M173" s="3">
         <v>3</v>
       </c>
       <c r="N173">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O173" t="s">
         <v>33</v>
@@ -13082,7 +12168,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B174">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
         <v>24</v>
@@ -13091,7 +12177,7 @@
         <v>13</v>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F174" t="s">
         <v>24</v>
@@ -13100,7 +12186,7 @@
         <v>9</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="s">
         <v>9</v>
@@ -13109,13 +12195,13 @@
         <v>1</v>
       </c>
       <c r="L174">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M174" s="3">
         <v>3</v>
       </c>
       <c r="N174">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O174" t="s">
         <v>33</v>
@@ -13126,7 +12212,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B175">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
         <v>24</v>
@@ -13135,7 +12221,7 @@
         <v>14</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F175" t="s">
         <v>24</v>
@@ -13144,19 +12230,22 @@
         <v>9</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="s">
         <v>9</v>
       </c>
+      <c r="J175">
+        <v>1</v>
+      </c>
       <c r="L175">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M175" s="3">
         <v>3</v>
       </c>
       <c r="N175">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O175" t="s">
         <v>33</v>
@@ -13167,7 +12256,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B176">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
         <v>24</v>
@@ -13176,7 +12265,7 @@
         <v>15</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F176" t="s">
         <v>24</v>
@@ -13185,7 +12274,7 @@
         <v>9</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="s">
         <v>9</v>
@@ -13194,13 +12283,13 @@
         <v>1</v>
       </c>
       <c r="L176">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M176" s="3">
         <v>3</v>
       </c>
       <c r="N176">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O176" t="s">
         <v>33</v>
@@ -13211,7 +12300,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B177">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
         <v>24</v>
@@ -13246,7 +12335,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B178">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C178" t="s">
         <v>24</v>
@@ -13255,7 +12344,7 @@
         <v>17</v>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F178" t="s">
         <v>24</v>
@@ -13264,7 +12353,7 @@
         <v>9</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="s">
         <v>9</v>
@@ -13273,13 +12362,13 @@
         <v>1</v>
       </c>
       <c r="L178">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M178" s="3">
         <v>3</v>
       </c>
       <c r="N178">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O178" t="s">
         <v>33</v>
@@ -13290,7 +12379,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B179">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
         <v>24</v>
@@ -13334,7 +12423,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B180">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
         <v>24</v>
@@ -13343,7 +12432,7 @@
         <v>19</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F180" t="s">
         <v>24</v>
@@ -13352,7 +12441,7 @@
         <v>9</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="s">
         <v>9</v>
@@ -13361,13 +12450,13 @@
         <v>1</v>
       </c>
       <c r="L180">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M180" s="3">
         <v>3</v>
       </c>
       <c r="N180">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O180" t="s">
         <v>33</v>
@@ -13378,7 +12467,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B181">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C181" t="s">
         <v>24</v>
@@ -13387,7 +12476,7 @@
         <v>20</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F181" t="s">
         <v>24</v>
@@ -13396,7 +12485,7 @@
         <v>9</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="s">
         <v>9</v>
@@ -13405,13 +12494,13 @@
         <v>1</v>
       </c>
       <c r="L181">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M181" s="3">
         <v>3</v>
       </c>
       <c r="N181">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O181" t="s">
         <v>33</v>
@@ -13422,7 +12511,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B182">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C182" t="s">
         <v>24</v>
@@ -13457,7 +12546,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B183">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C183" t="s">
         <v>24</v>
@@ -13480,8 +12569,17 @@
       <c r="I183" t="s">
         <v>9</v>
       </c>
+      <c r="J183">
+        <v>1</v>
+      </c>
+      <c r="L183">
+        <v>1</v>
+      </c>
       <c r="M183" s="3">
         <v>3</v>
+      </c>
+      <c r="N183">
+        <v>1</v>
       </c>
       <c r="O183" t="s">
         <v>33</v>
@@ -13492,7 +12590,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B184">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C184" t="s">
         <v>24</v>
@@ -13515,8 +12613,17 @@
       <c r="I184" t="s">
         <v>9</v>
       </c>
+      <c r="J184">
+        <v>1</v>
+      </c>
+      <c r="L184">
+        <v>1</v>
+      </c>
       <c r="M184" s="3">
         <v>3</v>
+      </c>
+      <c r="N184">
+        <v>1</v>
       </c>
       <c r="O184" t="s">
         <v>33</v>
@@ -13527,7 +12634,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B185">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C185" t="s">
         <v>24</v>
@@ -13550,8 +12657,17 @@
       <c r="I185" t="s">
         <v>9</v>
       </c>
+      <c r="J185">
+        <v>1</v>
+      </c>
+      <c r="L185">
+        <v>1</v>
+      </c>
       <c r="M185" s="3">
         <v>3</v>
+      </c>
+      <c r="N185">
+        <v>1</v>
       </c>
       <c r="O185" t="s">
         <v>33</v>
@@ -13562,7 +12678,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B186">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C186" t="s">
         <v>24</v>
@@ -13585,8 +12701,17 @@
       <c r="I186" t="s">
         <v>9</v>
       </c>
+      <c r="J186">
+        <v>1</v>
+      </c>
+      <c r="L186">
+        <v>1</v>
+      </c>
       <c r="M186" s="3">
         <v>3</v>
+      </c>
+      <c r="N186">
+        <v>1</v>
       </c>
       <c r="O186" t="s">
         <v>33</v>
@@ -13597,7 +12722,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B187">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C187" t="s">
         <v>24</v>
@@ -13641,7 +12766,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B188">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C188" t="s">
         <v>24</v>
@@ -13676,7 +12801,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B189">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C189" t="s">
         <v>24</v>
@@ -13699,7 +12824,16 @@
       <c r="I189" t="s">
         <v>9</v>
       </c>
+      <c r="J189">
+        <v>1</v>
+      </c>
+      <c r="L189">
+        <v>1</v>
+      </c>
       <c r="M189" s="2">
+        <v>1</v>
+      </c>
+      <c r="N189">
         <v>1</v>
       </c>
       <c r="O189" t="s">
@@ -13711,7 +12845,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B190">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C190" t="s">
         <v>24</v>
@@ -13746,7 +12880,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B191">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C191" t="s">
         <v>24</v>
@@ -13769,8 +12903,17 @@
       <c r="I191" t="s">
         <v>9</v>
       </c>
+      <c r="J191">
+        <v>1</v>
+      </c>
+      <c r="L191">
+        <v>1</v>
+      </c>
       <c r="M191" s="5">
         <v>2</v>
+      </c>
+      <c r="N191">
+        <v>1</v>
       </c>
       <c r="O191" t="s">
         <v>33</v>
@@ -13781,7 +12924,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B192">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C192" t="s">
         <v>24</v>
@@ -13804,8 +12947,17 @@
       <c r="I192" t="s">
         <v>9</v>
       </c>
+      <c r="J192">
+        <v>1</v>
+      </c>
+      <c r="L192">
+        <v>1</v>
+      </c>
       <c r="M192" s="3">
         <v>3</v>
+      </c>
+      <c r="N192">
+        <v>1</v>
       </c>
       <c r="O192" t="s">
         <v>33</v>
@@ -13816,7 +12968,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B193">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C193" t="s">
         <v>24</v>
@@ -13839,1021 +12991,19 @@
       <c r="I193" t="s">
         <v>9</v>
       </c>
+      <c r="J193">
+        <v>1</v>
+      </c>
+      <c r="L193">
+        <v>1</v>
+      </c>
       <c r="M193" s="3">
         <v>3</v>
       </c>
+      <c r="N193">
+        <v>1</v>
+      </c>
       <c r="O193" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A194">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B194">
-        <v>9</v>
-      </c>
-      <c r="C194" t="s">
-        <v>24</v>
-      </c>
-      <c r="D194" t="s">
-        <v>8</v>
-      </c>
-      <c r="E194">
-        <v>0</v>
-      </c>
-      <c r="F194" t="s">
-        <v>24</v>
-      </c>
-      <c r="G194" t="s">
-        <v>9</v>
-      </c>
-      <c r="H194">
-        <v>1</v>
-      </c>
-      <c r="I194" t="s">
-        <v>9</v>
-      </c>
-      <c r="M194" s="3">
-        <v>3</v>
-      </c>
-      <c r="O194" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A195">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B195">
-        <v>9</v>
-      </c>
-      <c r="C195" t="s">
-        <v>24</v>
-      </c>
-      <c r="D195" t="s">
-        <v>10</v>
-      </c>
-      <c r="E195">
-        <v>1</v>
-      </c>
-      <c r="F195" t="s">
-        <v>24</v>
-      </c>
-      <c r="G195" t="s">
-        <v>9</v>
-      </c>
-      <c r="H195">
-        <v>0</v>
-      </c>
-      <c r="I195" t="s">
-        <v>9</v>
-      </c>
-      <c r="J195">
-        <v>1</v>
-      </c>
-      <c r="L195">
-        <v>3</v>
-      </c>
-      <c r="M195" s="3">
-        <v>3</v>
-      </c>
-      <c r="N195">
-        <v>3</v>
-      </c>
-      <c r="O195" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A196">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B196">
-        <v>9</v>
-      </c>
-      <c r="C196" t="s">
-        <v>24</v>
-      </c>
-      <c r="D196" t="s">
-        <v>11</v>
-      </c>
-      <c r="E196">
-        <v>1</v>
-      </c>
-      <c r="F196" t="s">
-        <v>24</v>
-      </c>
-      <c r="G196" t="s">
-        <v>9</v>
-      </c>
-      <c r="H196">
-        <v>0</v>
-      </c>
-      <c r="I196" t="s">
-        <v>9</v>
-      </c>
-      <c r="J196">
-        <v>1</v>
-      </c>
-      <c r="L196">
-        <v>3</v>
-      </c>
-      <c r="M196" s="3">
-        <v>3</v>
-      </c>
-      <c r="N196">
-        <v>3</v>
-      </c>
-      <c r="O196" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A197">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B197">
-        <v>9</v>
-      </c>
-      <c r="C197" t="s">
-        <v>24</v>
-      </c>
-      <c r="D197" t="s">
-        <v>12</v>
-      </c>
-      <c r="E197">
-        <v>1</v>
-      </c>
-      <c r="F197" t="s">
-        <v>24</v>
-      </c>
-      <c r="G197" t="s">
-        <v>9</v>
-      </c>
-      <c r="H197">
-        <v>0</v>
-      </c>
-      <c r="I197" t="s">
-        <v>9</v>
-      </c>
-      <c r="J197">
-        <v>1</v>
-      </c>
-      <c r="L197">
-        <v>3</v>
-      </c>
-      <c r="M197" s="3">
-        <v>3</v>
-      </c>
-      <c r="N197">
-        <v>3</v>
-      </c>
-      <c r="O197" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A198">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B198">
-        <v>9</v>
-      </c>
-      <c r="C198" t="s">
-        <v>24</v>
-      </c>
-      <c r="D198" t="s">
-        <v>13</v>
-      </c>
-      <c r="E198">
-        <v>1</v>
-      </c>
-      <c r="F198" t="s">
-        <v>24</v>
-      </c>
-      <c r="G198" t="s">
-        <v>9</v>
-      </c>
-      <c r="H198">
-        <v>0</v>
-      </c>
-      <c r="I198" t="s">
-        <v>9</v>
-      </c>
-      <c r="J198">
-        <v>1</v>
-      </c>
-      <c r="L198">
-        <v>3</v>
-      </c>
-      <c r="M198" s="3">
-        <v>3</v>
-      </c>
-      <c r="N198">
-        <v>3</v>
-      </c>
-      <c r="O198" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A199">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B199">
-        <v>9</v>
-      </c>
-      <c r="C199" t="s">
-        <v>24</v>
-      </c>
-      <c r="D199" t="s">
-        <v>14</v>
-      </c>
-      <c r="E199">
-        <v>1</v>
-      </c>
-      <c r="F199" t="s">
-        <v>24</v>
-      </c>
-      <c r="G199" t="s">
-        <v>9</v>
-      </c>
-      <c r="H199">
-        <v>0</v>
-      </c>
-      <c r="I199" t="s">
-        <v>9</v>
-      </c>
-      <c r="J199">
-        <v>1</v>
-      </c>
-      <c r="L199">
-        <v>3</v>
-      </c>
-      <c r="M199" s="3">
-        <v>3</v>
-      </c>
-      <c r="N199">
-        <v>3</v>
-      </c>
-      <c r="O199" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A200">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B200">
-        <v>9</v>
-      </c>
-      <c r="C200" t="s">
-        <v>24</v>
-      </c>
-      <c r="D200" t="s">
-        <v>15</v>
-      </c>
-      <c r="E200">
-        <v>1</v>
-      </c>
-      <c r="F200" t="s">
-        <v>24</v>
-      </c>
-      <c r="G200" t="s">
-        <v>9</v>
-      </c>
-      <c r="H200">
-        <v>0</v>
-      </c>
-      <c r="I200" t="s">
-        <v>9</v>
-      </c>
-      <c r="J200">
-        <v>1</v>
-      </c>
-      <c r="L200">
-        <v>3</v>
-      </c>
-      <c r="M200" s="3">
-        <v>3</v>
-      </c>
-      <c r="N200">
-        <v>3</v>
-      </c>
-      <c r="O200" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A201">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B201">
-        <v>9</v>
-      </c>
-      <c r="C201" t="s">
-        <v>24</v>
-      </c>
-      <c r="D201" t="s">
-        <v>16</v>
-      </c>
-      <c r="E201">
-        <v>0</v>
-      </c>
-      <c r="F201" t="s">
-        <v>24</v>
-      </c>
-      <c r="G201" t="s">
-        <v>9</v>
-      </c>
-      <c r="H201">
-        <v>1</v>
-      </c>
-      <c r="I201" t="s">
-        <v>9</v>
-      </c>
-      <c r="M201" s="2">
-        <v>1</v>
-      </c>
-      <c r="O201" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A202">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B202">
-        <v>9</v>
-      </c>
-      <c r="C202" t="s">
-        <v>24</v>
-      </c>
-      <c r="D202" t="s">
-        <v>17</v>
-      </c>
-      <c r="E202">
-        <v>1</v>
-      </c>
-      <c r="F202" t="s">
-        <v>24</v>
-      </c>
-      <c r="G202" t="s">
-        <v>9</v>
-      </c>
-      <c r="H202">
-        <v>0</v>
-      </c>
-      <c r="I202" t="s">
-        <v>9</v>
-      </c>
-      <c r="J202">
-        <v>1</v>
-      </c>
-      <c r="L202">
-        <v>3</v>
-      </c>
-      <c r="M202" s="3">
-        <v>3</v>
-      </c>
-      <c r="N202">
-        <v>3</v>
-      </c>
-      <c r="O202" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A203">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B203">
-        <v>9</v>
-      </c>
-      <c r="C203" t="s">
-        <v>24</v>
-      </c>
-      <c r="D203" t="s">
-        <v>18</v>
-      </c>
-      <c r="E203">
-        <v>0</v>
-      </c>
-      <c r="F203" t="s">
-        <v>24</v>
-      </c>
-      <c r="G203" t="s">
-        <v>9</v>
-      </c>
-      <c r="H203">
-        <v>1</v>
-      </c>
-      <c r="I203" t="s">
-        <v>9</v>
-      </c>
-      <c r="J203">
-        <v>1</v>
-      </c>
-      <c r="L203">
-        <v>1</v>
-      </c>
-      <c r="M203" s="5">
-        <v>2</v>
-      </c>
-      <c r="N203">
-        <v>1</v>
-      </c>
-      <c r="O203" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A204">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B204">
-        <v>9</v>
-      </c>
-      <c r="C204" t="s">
-        <v>24</v>
-      </c>
-      <c r="D204" t="s">
-        <v>19</v>
-      </c>
-      <c r="E204">
-        <v>1</v>
-      </c>
-      <c r="F204" t="s">
-        <v>24</v>
-      </c>
-      <c r="G204" t="s">
-        <v>9</v>
-      </c>
-      <c r="H204">
-        <v>0</v>
-      </c>
-      <c r="I204" t="s">
-        <v>9</v>
-      </c>
-      <c r="J204">
-        <v>1</v>
-      </c>
-      <c r="L204">
-        <v>3</v>
-      </c>
-      <c r="M204" s="3">
-        <v>3</v>
-      </c>
-      <c r="N204">
-        <v>3</v>
-      </c>
-      <c r="O204" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A205">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B205">
-        <v>9</v>
-      </c>
-      <c r="C205" t="s">
-        <v>24</v>
-      </c>
-      <c r="D205" t="s">
-        <v>20</v>
-      </c>
-      <c r="E205">
-        <v>1</v>
-      </c>
-      <c r="F205" t="s">
-        <v>24</v>
-      </c>
-      <c r="G205" t="s">
-        <v>9</v>
-      </c>
-      <c r="H205">
-        <v>0</v>
-      </c>
-      <c r="I205" t="s">
-        <v>9</v>
-      </c>
-      <c r="J205">
-        <v>1</v>
-      </c>
-      <c r="L205">
-        <v>3</v>
-      </c>
-      <c r="M205" s="3">
-        <v>3</v>
-      </c>
-      <c r="N205">
-        <v>3</v>
-      </c>
-      <c r="O205" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A206">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B206">
-        <v>11</v>
-      </c>
-      <c r="C206" t="s">
-        <v>24</v>
-      </c>
-      <c r="D206" t="s">
-        <v>8</v>
-      </c>
-      <c r="E206">
-        <v>0</v>
-      </c>
-      <c r="F206" t="s">
-        <v>24</v>
-      </c>
-      <c r="G206" t="s">
-        <v>9</v>
-      </c>
-      <c r="H206">
-        <v>1</v>
-      </c>
-      <c r="I206" t="s">
-        <v>9</v>
-      </c>
-      <c r="M206" s="3">
-        <v>3</v>
-      </c>
-      <c r="O206" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A207">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B207">
-        <v>11</v>
-      </c>
-      <c r="C207" t="s">
-        <v>24</v>
-      </c>
-      <c r="D207" t="s">
-        <v>10</v>
-      </c>
-      <c r="E207">
-        <v>0</v>
-      </c>
-      <c r="F207" t="s">
-        <v>24</v>
-      </c>
-      <c r="G207" t="s">
-        <v>9</v>
-      </c>
-      <c r="H207">
-        <v>1</v>
-      </c>
-      <c r="I207" t="s">
-        <v>9</v>
-      </c>
-      <c r="J207">
-        <v>1</v>
-      </c>
-      <c r="L207">
-        <v>1</v>
-      </c>
-      <c r="M207" s="3">
-        <v>3</v>
-      </c>
-      <c r="N207">
-        <v>1</v>
-      </c>
-      <c r="O207" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A208">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B208">
-        <v>11</v>
-      </c>
-      <c r="C208" t="s">
-        <v>24</v>
-      </c>
-      <c r="D208" t="s">
-        <v>11</v>
-      </c>
-      <c r="E208">
-        <v>0</v>
-      </c>
-      <c r="F208" t="s">
-        <v>24</v>
-      </c>
-      <c r="G208" t="s">
-        <v>9</v>
-      </c>
-      <c r="H208">
-        <v>1</v>
-      </c>
-      <c r="I208" t="s">
-        <v>9</v>
-      </c>
-      <c r="J208">
-        <v>1</v>
-      </c>
-      <c r="L208">
-        <v>1</v>
-      </c>
-      <c r="M208" s="3">
-        <v>3</v>
-      </c>
-      <c r="N208">
-        <v>1</v>
-      </c>
-      <c r="O208" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A209">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B209">
-        <v>11</v>
-      </c>
-      <c r="C209" t="s">
-        <v>24</v>
-      </c>
-      <c r="D209" t="s">
-        <v>12</v>
-      </c>
-      <c r="E209">
-        <v>0</v>
-      </c>
-      <c r="F209" t="s">
-        <v>24</v>
-      </c>
-      <c r="G209" t="s">
-        <v>9</v>
-      </c>
-      <c r="H209">
-        <v>1</v>
-      </c>
-      <c r="I209" t="s">
-        <v>9</v>
-      </c>
-      <c r="J209">
-        <v>1</v>
-      </c>
-      <c r="L209">
-        <v>1</v>
-      </c>
-      <c r="M209" s="3">
-        <v>3</v>
-      </c>
-      <c r="N209">
-        <v>1</v>
-      </c>
-      <c r="O209" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A210">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B210">
-        <v>11</v>
-      </c>
-      <c r="C210" t="s">
-        <v>24</v>
-      </c>
-      <c r="D210" t="s">
-        <v>13</v>
-      </c>
-      <c r="E210">
-        <v>0</v>
-      </c>
-      <c r="F210" t="s">
-        <v>24</v>
-      </c>
-      <c r="G210" t="s">
-        <v>9</v>
-      </c>
-      <c r="H210">
-        <v>1</v>
-      </c>
-      <c r="I210" t="s">
-        <v>9</v>
-      </c>
-      <c r="J210">
-        <v>1</v>
-      </c>
-      <c r="L210">
-        <v>1</v>
-      </c>
-      <c r="M210" s="3">
-        <v>3</v>
-      </c>
-      <c r="N210">
-        <v>1</v>
-      </c>
-      <c r="O210" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A211">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B211">
-        <v>11</v>
-      </c>
-      <c r="C211" t="s">
-        <v>24</v>
-      </c>
-      <c r="D211" t="s">
-        <v>14</v>
-      </c>
-      <c r="E211">
-        <v>1</v>
-      </c>
-      <c r="F211" t="s">
-        <v>24</v>
-      </c>
-      <c r="G211" t="s">
-        <v>9</v>
-      </c>
-      <c r="H211">
-        <v>0</v>
-      </c>
-      <c r="I211" t="s">
-        <v>9</v>
-      </c>
-      <c r="J211">
-        <v>1</v>
-      </c>
-      <c r="L211">
-        <v>1</v>
-      </c>
-      <c r="M211" s="3">
-        <v>3</v>
-      </c>
-      <c r="N211">
-        <v>1</v>
-      </c>
-      <c r="O211" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A212">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B212">
-        <v>11</v>
-      </c>
-      <c r="C212" t="s">
-        <v>24</v>
-      </c>
-      <c r="D212" t="s">
-        <v>15</v>
-      </c>
-      <c r="E212">
-        <v>0</v>
-      </c>
-      <c r="F212" t="s">
-        <v>24</v>
-      </c>
-      <c r="G212" t="s">
-        <v>9</v>
-      </c>
-      <c r="H212">
-        <v>1</v>
-      </c>
-      <c r="I212" t="s">
-        <v>9</v>
-      </c>
-      <c r="M212" s="3">
-        <v>3</v>
-      </c>
-      <c r="O212" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A213">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B213">
-        <v>11</v>
-      </c>
-      <c r="C213" t="s">
-        <v>24</v>
-      </c>
-      <c r="D213" t="s">
-        <v>16</v>
-      </c>
-      <c r="E213">
-        <v>0</v>
-      </c>
-      <c r="F213" t="s">
-        <v>24</v>
-      </c>
-      <c r="G213" t="s">
-        <v>9</v>
-      </c>
-      <c r="H213">
-        <v>1</v>
-      </c>
-      <c r="I213" t="s">
-        <v>9</v>
-      </c>
-      <c r="J213">
-        <v>1</v>
-      </c>
-      <c r="L213">
-        <v>1</v>
-      </c>
-      <c r="M213" s="2">
-        <v>1</v>
-      </c>
-      <c r="N213">
-        <v>1</v>
-      </c>
-      <c r="O213" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A214">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B214">
-        <v>11</v>
-      </c>
-      <c r="C214" t="s">
-        <v>24</v>
-      </c>
-      <c r="D214" t="s">
-        <v>17</v>
-      </c>
-      <c r="E214">
-        <v>0</v>
-      </c>
-      <c r="F214" t="s">
-        <v>24</v>
-      </c>
-      <c r="G214" t="s">
-        <v>9</v>
-      </c>
-      <c r="H214">
-        <v>1</v>
-      </c>
-      <c r="I214" t="s">
-        <v>9</v>
-      </c>
-      <c r="M214" s="3">
-        <v>3</v>
-      </c>
-      <c r="O214" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A215">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B215">
-        <v>11</v>
-      </c>
-      <c r="C215" t="s">
-        <v>24</v>
-      </c>
-      <c r="D215" t="s">
-        <v>18</v>
-      </c>
-      <c r="E215">
-        <v>0</v>
-      </c>
-      <c r="F215" t="s">
-        <v>24</v>
-      </c>
-      <c r="G215" t="s">
-        <v>9</v>
-      </c>
-      <c r="H215">
-        <v>1</v>
-      </c>
-      <c r="I215" t="s">
-        <v>9</v>
-      </c>
-      <c r="J215">
-        <v>1</v>
-      </c>
-      <c r="L215">
-        <v>1</v>
-      </c>
-      <c r="M215" s="5">
-        <v>2</v>
-      </c>
-      <c r="N215">
-        <v>1</v>
-      </c>
-      <c r="O215" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A216">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B216">
-        <v>11</v>
-      </c>
-      <c r="C216" t="s">
-        <v>24</v>
-      </c>
-      <c r="D216" t="s">
-        <v>19</v>
-      </c>
-      <c r="E216">
-        <v>0</v>
-      </c>
-      <c r="F216" t="s">
-        <v>24</v>
-      </c>
-      <c r="G216" t="s">
-        <v>9</v>
-      </c>
-      <c r="H216">
-        <v>1</v>
-      </c>
-      <c r="I216" t="s">
-        <v>9</v>
-      </c>
-      <c r="J216">
-        <v>1</v>
-      </c>
-      <c r="L216">
-        <v>1</v>
-      </c>
-      <c r="M216" s="3">
-        <v>3</v>
-      </c>
-      <c r="N216">
-        <v>1</v>
-      </c>
-      <c r="O216" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A217">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B217">
-        <v>11</v>
-      </c>
-      <c r="C217" t="s">
-        <v>24</v>
-      </c>
-      <c r="D217" t="s">
-        <v>20</v>
-      </c>
-      <c r="E217">
-        <v>0</v>
-      </c>
-      <c r="F217" t="s">
-        <v>24</v>
-      </c>
-      <c r="G217" t="s">
-        <v>9</v>
-      </c>
-      <c r="H217">
-        <v>1</v>
-      </c>
-      <c r="I217" t="s">
-        <v>9</v>
-      </c>
-      <c r="J217">
-        <v>1</v>
-      </c>
-      <c r="L217">
-        <v>1</v>
-      </c>
-      <c r="M217" s="3">
-        <v>3</v>
-      </c>
-      <c r="N217">
-        <v>1</v>
-      </c>
-      <c r="O217" t="s">
         <v>33</v>
       </c>
     </row>
@@ -14864,11 +13014,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O85"/>
+  <dimension ref="A1:O61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:O85"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O50" sqref="O50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14928,10 +13078,10 @@
         <v>2.4</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -14943,15 +13093,24 @@
         <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="6">
+        <v>9</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2" s="7">
+        <v>2</v>
+      </c>
+      <c r="N2">
         <v>1</v>
       </c>
       <c r="O2" t="s">
@@ -14963,30 +13122,39 @@
         <v>2.4</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="6">
+        <v>9</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3" s="7">
+        <v>2</v>
+      </c>
+      <c r="N3">
         <v>1</v>
       </c>
       <c r="O3" t="s">
@@ -14998,10 +13166,10 @@
         <v>2.4</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -15013,15 +13181,24 @@
         <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" s="6">
+        <v>9</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4" s="7">
+        <v>2</v>
+      </c>
+      <c r="N4">
         <v>1</v>
       </c>
       <c r="O4" t="s">
@@ -15033,10 +13210,10 @@
         <v>2.4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -15048,15 +13225,24 @@
         <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" s="6">
+        <v>9</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5" s="7">
+        <v>2</v>
+      </c>
+      <c r="N5">
         <v>1</v>
       </c>
       <c r="O5" t="s">
@@ -15068,10 +13254,10 @@
         <v>2.4</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -15083,15 +13269,24 @@
         <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
-      </c>
-      <c r="M6" s="6">
+        <v>9</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6" s="7">
+        <v>2</v>
+      </c>
+      <c r="N6">
         <v>1</v>
       </c>
       <c r="O6" t="s">
@@ -15103,30 +13298,39 @@
         <v>2.4</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
         <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M7" s="6">
+        <v>9</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7" s="7">
+        <v>2</v>
+      </c>
+      <c r="N7">
         <v>1</v>
       </c>
       <c r="O7" t="s">
@@ -15138,10 +13342,10 @@
         <v>2.4</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
@@ -15153,15 +13357,24 @@
         <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M8" s="6">
+        <v>9</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8" s="7">
+        <v>2</v>
+      </c>
+      <c r="N8">
         <v>1</v>
       </c>
       <c r="O8" t="s">
@@ -15173,10 +13386,10 @@
         <v>2.4</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
@@ -15188,15 +13401,24 @@
         <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>25</v>
-      </c>
-      <c r="M9" s="6">
+        <v>9</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9" s="7">
+        <v>2</v>
+      </c>
+      <c r="N9">
         <v>1</v>
       </c>
       <c r="O9" t="s">
@@ -15208,10 +13430,10 @@
         <v>2.4</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -15223,15 +13445,24 @@
         <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>25</v>
-      </c>
-      <c r="M10" s="6">
+        <v>9</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10" s="7">
+        <v>2</v>
+      </c>
+      <c r="N10">
         <v>1</v>
       </c>
       <c r="O10" t="s">
@@ -15243,10 +13474,10 @@
         <v>2.4</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
@@ -15258,15 +13489,24 @@
         <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>25</v>
-      </c>
-      <c r="M11" s="6">
+        <v>9</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11" s="7">
+        <v>2</v>
+      </c>
+      <c r="N11">
         <v>1</v>
       </c>
       <c r="O11" t="s">
@@ -15278,10 +13518,10 @@
         <v>2.4</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>19</v>
@@ -15293,15 +13533,24 @@
         <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M12" s="6">
+        <v>9</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12" s="7">
+        <v>2</v>
+      </c>
+      <c r="N12">
         <v>1</v>
       </c>
       <c r="O12" t="s">
@@ -15313,10 +13562,10 @@
         <v>2.4</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>20</v>
@@ -15328,15 +13577,24 @@
         <v>24</v>
       </c>
       <c r="G13" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M13" s="6">
+        <v>9</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13" s="7">
+        <v>2</v>
+      </c>
+      <c r="N13">
         <v>1</v>
       </c>
       <c r="O13" t="s">
@@ -15348,31 +13606,43 @@
         <v>2.4</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="s">
         <v>24</v>
       </c>
       <c r="G14" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M14" s="6">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14" s="7">
+        <v>2</v>
+      </c>
+      <c r="N14">
+        <v>2</v>
       </c>
       <c r="O14" t="s">
         <v>33</v>
@@ -15383,10 +13653,10 @@
         <v>2.4</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>10</v>
@@ -15398,16 +13668,16 @@
         <v>24</v>
       </c>
       <c r="G15" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>25</v>
-      </c>
-      <c r="M15" s="6">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="M15" s="7">
+        <v>2</v>
       </c>
       <c r="O15" t="s">
         <v>33</v>
@@ -15418,31 +13688,43 @@
         <v>2.4</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
         <v>11</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="s">
         <v>24</v>
       </c>
       <c r="G16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>25</v>
-      </c>
-      <c r="M16" s="6">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16" s="7">
+        <v>2</v>
+      </c>
+      <c r="N16">
+        <v>2</v>
       </c>
       <c r="O16" t="s">
         <v>33</v>
@@ -15453,31 +13735,43 @@
         <v>2.4</v>
       </c>
       <c r="B17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="s">
         <v>24</v>
       </c>
       <c r="G17" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>25</v>
-      </c>
-      <c r="M17" s="6">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2</v>
+      </c>
+      <c r="N17">
+        <v>2</v>
       </c>
       <c r="O17" t="s">
         <v>33</v>
@@ -15488,10 +13782,10 @@
         <v>2.4</v>
       </c>
       <c r="B18">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
         <v>13</v>
@@ -15503,16 +13797,28 @@
         <v>24</v>
       </c>
       <c r="G18" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>25</v>
-      </c>
-      <c r="M18" s="6">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18" s="7">
+        <v>2</v>
+      </c>
+      <c r="N18">
+        <v>2</v>
       </c>
       <c r="O18" t="s">
         <v>33</v>
@@ -15523,10 +13829,10 @@
         <v>2.4</v>
       </c>
       <c r="B19">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
         <v>14</v>
@@ -15538,15 +13844,27 @@
         <v>24</v>
       </c>
       <c r="G19" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M19" s="6">
+        <v>9</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19" s="7">
+        <v>2</v>
+      </c>
+      <c r="N19">
         <v>1</v>
       </c>
       <c r="O19" t="s">
@@ -15558,31 +13876,43 @@
         <v>2.4</v>
       </c>
       <c r="B20">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D20" t="s">
         <v>15</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="s">
         <v>24</v>
       </c>
       <c r="G20" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>25</v>
-      </c>
-      <c r="M20" s="6">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20" s="7">
+        <v>2</v>
+      </c>
+      <c r="N20">
+        <v>2</v>
       </c>
       <c r="O20" t="s">
         <v>33</v>
@@ -15593,31 +13923,43 @@
         <v>2.4</v>
       </c>
       <c r="B21">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D21" t="s">
         <v>16</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="s">
         <v>24</v>
       </c>
       <c r="G21" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>25</v>
-      </c>
-      <c r="M21" s="6">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21" s="7">
+        <v>2</v>
+      </c>
+      <c r="N21">
+        <v>2</v>
       </c>
       <c r="O21" t="s">
         <v>33</v>
@@ -15628,31 +13970,43 @@
         <v>2.4</v>
       </c>
       <c r="B22">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D22" t="s">
         <v>17</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="s">
         <v>24</v>
       </c>
       <c r="G22" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>25</v>
-      </c>
-      <c r="M22" s="6">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22" s="7">
+        <v>2</v>
+      </c>
+      <c r="N22">
+        <v>2</v>
       </c>
       <c r="O22" t="s">
         <v>33</v>
@@ -15663,31 +14017,43 @@
         <v>2.4</v>
       </c>
       <c r="B23">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D23" t="s">
         <v>18</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="s">
         <v>24</v>
       </c>
       <c r="G23" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>25</v>
-      </c>
-      <c r="M23" s="6">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23" s="7">
+        <v>2</v>
+      </c>
+      <c r="N23">
+        <v>2</v>
       </c>
       <c r="O23" t="s">
         <v>33</v>
@@ -15698,31 +14064,43 @@
         <v>2.4</v>
       </c>
       <c r="B24">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D24" t="s">
         <v>19</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="s">
         <v>24</v>
       </c>
       <c r="G24" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>25</v>
-      </c>
-      <c r="M24" s="6">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24" s="7">
+        <v>2</v>
+      </c>
+      <c r="N24">
+        <v>2</v>
       </c>
       <c r="O24" t="s">
         <v>33</v>
@@ -15733,31 +14111,43 @@
         <v>2.4</v>
       </c>
       <c r="B25">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D25" t="s">
         <v>20</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="s">
         <v>24</v>
       </c>
       <c r="G25" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>25</v>
-      </c>
-      <c r="M25" s="6">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25" s="7">
+        <v>2</v>
+      </c>
+      <c r="N25">
+        <v>2</v>
       </c>
       <c r="O25" t="s">
         <v>33</v>
@@ -15768,7 +14158,7 @@
         <v>2.4</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C26" t="s">
         <v>24</v>
@@ -15777,7 +14167,7 @@
         <v>8</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="s">
         <v>24</v>
@@ -15786,12 +14176,12 @@
         <v>9</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="s">
         <v>9</v>
       </c>
-      <c r="K26">
+      <c r="J26">
         <v>1</v>
       </c>
       <c r="L26">
@@ -15812,7 +14202,7 @@
         <v>2.4</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C27" t="s">
         <v>24</v>
@@ -15835,7 +14225,7 @@
       <c r="I27" t="s">
         <v>9</v>
       </c>
-      <c r="K27">
+      <c r="J27">
         <v>1</v>
       </c>
       <c r="L27">
@@ -15856,7 +14246,7 @@
         <v>2.4</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C28" t="s">
         <v>24</v>
@@ -15879,7 +14269,7 @@
       <c r="I28" t="s">
         <v>9</v>
       </c>
-      <c r="K28">
+      <c r="J28">
         <v>1</v>
       </c>
       <c r="L28">
@@ -15900,7 +14290,7 @@
         <v>2.4</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C29" t="s">
         <v>24</v>
@@ -15909,7 +14299,7 @@
         <v>12</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="s">
         <v>24</v>
@@ -15918,12 +14308,12 @@
         <v>9</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="s">
         <v>9</v>
       </c>
-      <c r="K29">
+      <c r="J29">
         <v>1</v>
       </c>
       <c r="L29">
@@ -15944,7 +14334,7 @@
         <v>2.4</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C30" t="s">
         <v>24</v>
@@ -15953,7 +14343,7 @@
         <v>13</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" t="s">
         <v>24</v>
@@ -15962,12 +14352,12 @@
         <v>9</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="s">
         <v>9</v>
       </c>
-      <c r="K30">
+      <c r="J30">
         <v>1</v>
       </c>
       <c r="L30">
@@ -15988,7 +14378,7 @@
         <v>2.4</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C31" t="s">
         <v>24</v>
@@ -16011,7 +14401,7 @@
       <c r="I31" t="s">
         <v>9</v>
       </c>
-      <c r="K31">
+      <c r="J31">
         <v>1</v>
       </c>
       <c r="L31">
@@ -16032,7 +14422,7 @@
         <v>2.4</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C32" t="s">
         <v>24</v>
@@ -16041,7 +14431,7 @@
         <v>15</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" t="s">
         <v>24</v>
@@ -16050,12 +14440,12 @@
         <v>9</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="s">
         <v>9</v>
       </c>
-      <c r="K32">
+      <c r="J32">
         <v>1</v>
       </c>
       <c r="L32">
@@ -16076,7 +14466,7 @@
         <v>2.4</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C33" t="s">
         <v>24</v>
@@ -16085,7 +14475,7 @@
         <v>16</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" t="s">
         <v>24</v>
@@ -16094,12 +14484,12 @@
         <v>9</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="s">
         <v>9</v>
       </c>
-      <c r="K33">
+      <c r="J33">
         <v>1</v>
       </c>
       <c r="L33">
@@ -16120,7 +14510,7 @@
         <v>2.4</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C34" t="s">
         <v>24</v>
@@ -16129,7 +14519,7 @@
         <v>17</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" t="s">
         <v>24</v>
@@ -16138,12 +14528,12 @@
         <v>9</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="s">
         <v>9</v>
       </c>
-      <c r="K34">
+      <c r="J34">
         <v>1</v>
       </c>
       <c r="L34">
@@ -16164,7 +14554,7 @@
         <v>2.4</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C35" t="s">
         <v>24</v>
@@ -16173,7 +14563,7 @@
         <v>18</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" t="s">
         <v>24</v>
@@ -16182,12 +14572,12 @@
         <v>9</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="s">
         <v>9</v>
       </c>
-      <c r="K35">
+      <c r="J35">
         <v>1</v>
       </c>
       <c r="L35">
@@ -16208,7 +14598,7 @@
         <v>2.4</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C36" t="s">
         <v>24</v>
@@ -16217,7 +14607,7 @@
         <v>19</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" t="s">
         <v>24</v>
@@ -16226,12 +14616,12 @@
         <v>9</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="s">
         <v>9</v>
       </c>
-      <c r="K36">
+      <c r="J36">
         <v>1</v>
       </c>
       <c r="L36">
@@ -16252,7 +14642,7 @@
         <v>2.4</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C37" t="s">
         <v>24</v>
@@ -16261,7 +14651,7 @@
         <v>20</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" t="s">
         <v>24</v>
@@ -16270,12 +14660,12 @@
         <v>9</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="s">
         <v>9</v>
       </c>
-      <c r="K37">
+      <c r="J37">
         <v>1</v>
       </c>
       <c r="L37">
@@ -16296,7 +14686,7 @@
         <v>2.4</v>
       </c>
       <c r="B38">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
         <v>24</v>
@@ -16305,7 +14695,7 @@
         <v>8</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" t="s">
         <v>24</v>
@@ -16314,15 +14704,12 @@
         <v>9</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="s">
         <v>9</v>
       </c>
       <c r="J38">
-        <v>1</v>
-      </c>
-      <c r="K38">
         <v>1</v>
       </c>
       <c r="L38">
@@ -16332,7 +14719,7 @@
         <v>2</v>
       </c>
       <c r="N38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O38" t="s">
         <v>33</v>
@@ -16343,7 +14730,7 @@
         <v>2.4</v>
       </c>
       <c r="B39">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C39" t="s">
         <v>24</v>
@@ -16366,14 +14753,8 @@
       <c r="I39" t="s">
         <v>9</v>
       </c>
-      <c r="K39">
-        <v>1</v>
-      </c>
       <c r="M39" s="7">
         <v>2</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
       </c>
       <c r="O39" t="s">
         <v>33</v>
@@ -16384,7 +14765,7 @@
         <v>2.4</v>
       </c>
       <c r="B40">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s">
         <v>24</v>
@@ -16393,7 +14774,7 @@
         <v>11</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="s">
         <v>24</v>
@@ -16402,15 +14783,12 @@
         <v>9</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="s">
         <v>9</v>
       </c>
       <c r="J40">
-        <v>1</v>
-      </c>
-      <c r="K40">
         <v>1</v>
       </c>
       <c r="L40">
@@ -16420,7 +14798,7 @@
         <v>2</v>
       </c>
       <c r="N40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O40" t="s">
         <v>33</v>
@@ -16431,7 +14809,7 @@
         <v>2.4</v>
       </c>
       <c r="B41">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
         <v>24</v>
@@ -16440,7 +14818,7 @@
         <v>12</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" t="s">
         <v>24</v>
@@ -16449,15 +14827,12 @@
         <v>9</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="s">
         <v>9</v>
       </c>
       <c r="J41">
-        <v>1</v>
-      </c>
-      <c r="K41">
         <v>1</v>
       </c>
       <c r="L41">
@@ -16467,7 +14842,7 @@
         <v>2</v>
       </c>
       <c r="N41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O41" t="s">
         <v>33</v>
@@ -16478,7 +14853,7 @@
         <v>2.4</v>
       </c>
       <c r="B42">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C42" t="s">
         <v>24</v>
@@ -16487,7 +14862,7 @@
         <v>13</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="s">
         <v>24</v>
@@ -16496,15 +14871,12 @@
         <v>9</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="s">
         <v>9</v>
       </c>
       <c r="J42">
-        <v>1</v>
-      </c>
-      <c r="K42">
         <v>1</v>
       </c>
       <c r="L42">
@@ -16514,7 +14886,7 @@
         <v>2</v>
       </c>
       <c r="N42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O42" t="s">
         <v>33</v>
@@ -16525,7 +14897,7 @@
         <v>2.4</v>
       </c>
       <c r="B43">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C43" t="s">
         <v>24</v>
@@ -16551,9 +14923,6 @@
       <c r="J43">
         <v>1</v>
       </c>
-      <c r="K43">
-        <v>1</v>
-      </c>
       <c r="L43">
         <v>1</v>
       </c>
@@ -16561,7 +14930,7 @@
         <v>2</v>
       </c>
       <c r="N43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O43" t="s">
         <v>33</v>
@@ -16572,7 +14941,7 @@
         <v>2.4</v>
       </c>
       <c r="B44">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C44" t="s">
         <v>24</v>
@@ -16581,7 +14950,7 @@
         <v>15</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" t="s">
         <v>24</v>
@@ -16590,15 +14959,12 @@
         <v>9</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="s">
         <v>9</v>
       </c>
       <c r="J44">
-        <v>1</v>
-      </c>
-      <c r="K44">
         <v>1</v>
       </c>
       <c r="L44">
@@ -16608,7 +14974,7 @@
         <v>2</v>
       </c>
       <c r="N44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O44" t="s">
         <v>33</v>
@@ -16619,7 +14985,7 @@
         <v>2.4</v>
       </c>
       <c r="B45">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C45" t="s">
         <v>24</v>
@@ -16628,7 +14994,7 @@
         <v>16</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" t="s">
         <v>24</v>
@@ -16637,15 +15003,12 @@
         <v>9</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="s">
         <v>9</v>
       </c>
       <c r="J45">
-        <v>1</v>
-      </c>
-      <c r="K45">
         <v>1</v>
       </c>
       <c r="L45">
@@ -16655,7 +15018,7 @@
         <v>2</v>
       </c>
       <c r="N45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O45" t="s">
         <v>33</v>
@@ -16666,7 +15029,7 @@
         <v>2.4</v>
       </c>
       <c r="B46">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C46" t="s">
         <v>24</v>
@@ -16675,7 +15038,7 @@
         <v>17</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" t="s">
         <v>24</v>
@@ -16684,15 +15047,12 @@
         <v>9</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="s">
         <v>9</v>
       </c>
       <c r="J46">
-        <v>1</v>
-      </c>
-      <c r="K46">
         <v>1</v>
       </c>
       <c r="L46">
@@ -16702,7 +15062,7 @@
         <v>2</v>
       </c>
       <c r="N46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O46" t="s">
         <v>33</v>
@@ -16713,7 +15073,7 @@
         <v>2.4</v>
       </c>
       <c r="B47">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C47" t="s">
         <v>24</v>
@@ -16722,7 +15082,7 @@
         <v>18</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="s">
         <v>24</v>
@@ -16731,15 +15091,12 @@
         <v>9</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="s">
         <v>9</v>
       </c>
       <c r="J47">
-        <v>1</v>
-      </c>
-      <c r="K47">
         <v>1</v>
       </c>
       <c r="L47">
@@ -16749,7 +15106,7 @@
         <v>2</v>
       </c>
       <c r="N47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O47" t="s">
         <v>33</v>
@@ -16760,7 +15117,7 @@
         <v>2.4</v>
       </c>
       <c r="B48">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C48" t="s">
         <v>24</v>
@@ -16786,9 +15143,6 @@
       <c r="J48">
         <v>1</v>
       </c>
-      <c r="K48">
-        <v>1</v>
-      </c>
       <c r="L48">
         <v>1</v>
       </c>
@@ -16796,7 +15150,7 @@
         <v>2</v>
       </c>
       <c r="N48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O48" t="s">
         <v>33</v>
@@ -16807,7 +15161,7 @@
         <v>2.4</v>
       </c>
       <c r="B49">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
         <v>24</v>
@@ -16816,7 +15170,7 @@
         <v>20</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" t="s">
         <v>24</v>
@@ -16825,15 +15179,12 @@
         <v>9</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="s">
         <v>9</v>
       </c>
       <c r="J49">
-        <v>1</v>
-      </c>
-      <c r="K49">
         <v>1</v>
       </c>
       <c r="L49">
@@ -16843,7 +15194,7 @@
         <v>2</v>
       </c>
       <c r="N49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O49" t="s">
         <v>33</v>
@@ -16854,7 +15205,7 @@
         <v>2.4</v>
       </c>
       <c r="B50">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
         <v>24</v>
@@ -16880,9 +15231,6 @@
       <c r="J50">
         <v>1</v>
       </c>
-      <c r="K50">
-        <v>1</v>
-      </c>
       <c r="L50">
         <v>1</v>
       </c>
@@ -16890,7 +15238,7 @@
         <v>2</v>
       </c>
       <c r="N50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O50" t="s">
         <v>33</v>
@@ -16901,7 +15249,7 @@
         <v>2.4</v>
       </c>
       <c r="B51">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
         <v>24</v>
@@ -16924,14 +15272,11 @@
       <c r="I51" t="s">
         <v>9</v>
       </c>
-      <c r="K51">
-        <v>1</v>
-      </c>
       <c r="M51" s="7">
         <v>2</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O51" t="s">
         <v>33</v>
@@ -16942,7 +15287,7 @@
         <v>2.4</v>
       </c>
       <c r="B52">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
         <v>24</v>
@@ -16968,9 +15313,6 @@
       <c r="J52">
         <v>1</v>
       </c>
-      <c r="K52">
-        <v>1</v>
-      </c>
       <c r="L52">
         <v>1</v>
       </c>
@@ -16978,7 +15320,7 @@
         <v>2</v>
       </c>
       <c r="N52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O52" t="s">
         <v>33</v>
@@ -16989,7 +15331,7 @@
         <v>2.4</v>
       </c>
       <c r="B53">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
         <v>24</v>
@@ -16998,7 +15340,7 @@
         <v>12</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" t="s">
         <v>24</v>
@@ -17007,15 +15349,12 @@
         <v>9</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="s">
         <v>9</v>
       </c>
       <c r="J53">
-        <v>1</v>
-      </c>
-      <c r="K53">
         <v>1</v>
       </c>
       <c r="L53">
@@ -17025,7 +15364,7 @@
         <v>2</v>
       </c>
       <c r="N53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O53" t="s">
         <v>33</v>
@@ -17036,7 +15375,7 @@
         <v>2.4</v>
       </c>
       <c r="B54">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
         <v>24</v>
@@ -17045,7 +15384,7 @@
         <v>13</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54" t="s">
         <v>24</v>
@@ -17054,15 +15393,12 @@
         <v>9</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="s">
         <v>9</v>
       </c>
       <c r="J54">
-        <v>1</v>
-      </c>
-      <c r="K54">
         <v>1</v>
       </c>
       <c r="L54">
@@ -17072,7 +15408,7 @@
         <v>2</v>
       </c>
       <c r="N54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O54" t="s">
         <v>33</v>
@@ -17083,7 +15419,7 @@
         <v>2.4</v>
       </c>
       <c r="B55">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
         <v>24</v>
@@ -17092,7 +15428,7 @@
         <v>14</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" t="s">
         <v>24</v>
@@ -17101,15 +15437,12 @@
         <v>9</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="s">
         <v>9</v>
       </c>
       <c r="J55">
-        <v>1</v>
-      </c>
-      <c r="K55">
         <v>1</v>
       </c>
       <c r="L55">
@@ -17119,7 +15452,7 @@
         <v>2</v>
       </c>
       <c r="N55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O55" t="s">
         <v>33</v>
@@ -17130,7 +15463,7 @@
         <v>2.4</v>
       </c>
       <c r="B56">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
         <v>24</v>
@@ -17139,7 +15472,7 @@
         <v>15</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" t="s">
         <v>24</v>
@@ -17148,15 +15481,12 @@
         <v>9</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="s">
         <v>9</v>
       </c>
       <c r="J56">
-        <v>1</v>
-      </c>
-      <c r="K56">
         <v>1</v>
       </c>
       <c r="L56">
@@ -17166,7 +15496,7 @@
         <v>2</v>
       </c>
       <c r="N56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O56" t="s">
         <v>33</v>
@@ -17177,7 +15507,7 @@
         <v>2.4</v>
       </c>
       <c r="B57">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
         <v>24</v>
@@ -17186,7 +15516,7 @@
         <v>16</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" t="s">
         <v>24</v>
@@ -17195,15 +15525,12 @@
         <v>9</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="s">
         <v>9</v>
       </c>
       <c r="J57">
-        <v>1</v>
-      </c>
-      <c r="K57">
         <v>1</v>
       </c>
       <c r="L57">
@@ -17213,7 +15540,7 @@
         <v>2</v>
       </c>
       <c r="N57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O57" t="s">
         <v>33</v>
@@ -17224,7 +15551,7 @@
         <v>2.4</v>
       </c>
       <c r="B58">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
         <v>24</v>
@@ -17233,7 +15560,7 @@
         <v>17</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" t="s">
         <v>24</v>
@@ -17242,15 +15569,12 @@
         <v>9</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="s">
         <v>9</v>
       </c>
       <c r="J58">
-        <v>1</v>
-      </c>
-      <c r="K58">
         <v>1</v>
       </c>
       <c r="L58">
@@ -17260,7 +15584,7 @@
         <v>2</v>
       </c>
       <c r="N58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O58" t="s">
         <v>33</v>
@@ -17271,7 +15595,7 @@
         <v>2.4</v>
       </c>
       <c r="B59">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
         <v>24</v>
@@ -17280,7 +15604,7 @@
         <v>18</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" t="s">
         <v>24</v>
@@ -17289,15 +15613,12 @@
         <v>9</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="s">
         <v>9</v>
       </c>
       <c r="J59">
-        <v>1</v>
-      </c>
-      <c r="K59">
         <v>1</v>
       </c>
       <c r="L59">
@@ -17307,7 +15628,7 @@
         <v>2</v>
       </c>
       <c r="N59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O59" t="s">
         <v>33</v>
@@ -17318,7 +15639,7 @@
         <v>2.4</v>
       </c>
       <c r="B60">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
         <v>24</v>
@@ -17327,7 +15648,7 @@
         <v>19</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" t="s">
         <v>24</v>
@@ -17336,15 +15657,12 @@
         <v>9</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="s">
         <v>9</v>
       </c>
       <c r="J60">
-        <v>1</v>
-      </c>
-      <c r="K60">
         <v>1</v>
       </c>
       <c r="L60">
@@ -17354,7 +15672,7 @@
         <v>2</v>
       </c>
       <c r="N60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O60" t="s">
         <v>33</v>
@@ -17365,7 +15683,7 @@
         <v>2.4</v>
       </c>
       <c r="B61">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
         <v>24</v>
@@ -17374,7 +15692,7 @@
         <v>20</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" t="s">
         <v>24</v>
@@ -17383,15 +15701,12 @@
         <v>9</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="s">
         <v>9</v>
       </c>
       <c r="J61">
-        <v>1</v>
-      </c>
-      <c r="K61">
         <v>1</v>
       </c>
       <c r="L61">
@@ -17401,1129 +15716,14 @@
         <v>2</v>
       </c>
       <c r="N61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O61" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>2.4</v>
-      </c>
-      <c r="B62">
-        <v>6</v>
-      </c>
-      <c r="C62" t="s">
-        <v>24</v>
-      </c>
-      <c r="D62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62" t="s">
-        <v>24</v>
-      </c>
-      <c r="G62" t="s">
-        <v>9</v>
-      </c>
-      <c r="H62">
-        <v>1</v>
-      </c>
-      <c r="I62" t="s">
-        <v>9</v>
-      </c>
-      <c r="J62">
-        <v>1</v>
-      </c>
-      <c r="K62">
-        <v>1</v>
-      </c>
-      <c r="L62">
-        <v>1</v>
-      </c>
-      <c r="M62" s="7">
-        <v>2</v>
-      </c>
-      <c r="N62">
-        <v>2</v>
-      </c>
-      <c r="O62" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>2.4</v>
-      </c>
-      <c r="B63">
-        <v>6</v>
-      </c>
-      <c r="C63" t="s">
-        <v>24</v>
-      </c>
-      <c r="D63" t="s">
-        <v>10</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63" t="s">
-        <v>24</v>
-      </c>
-      <c r="G63" t="s">
-        <v>9</v>
-      </c>
-      <c r="H63">
-        <v>1</v>
-      </c>
-      <c r="I63" t="s">
-        <v>9</v>
-      </c>
-      <c r="K63">
-        <v>1</v>
-      </c>
-      <c r="M63" s="7">
-        <v>2</v>
-      </c>
-      <c r="N63">
-        <v>1</v>
-      </c>
-      <c r="O63" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>2.4</v>
-      </c>
-      <c r="B64">
-        <v>6</v>
-      </c>
-      <c r="C64" t="s">
-        <v>24</v>
-      </c>
-      <c r="D64" t="s">
-        <v>11</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64" t="s">
-        <v>24</v>
-      </c>
-      <c r="G64" t="s">
-        <v>9</v>
-      </c>
-      <c r="H64">
-        <v>1</v>
-      </c>
-      <c r="I64" t="s">
-        <v>9</v>
-      </c>
-      <c r="J64">
-        <v>1</v>
-      </c>
-      <c r="K64">
-        <v>1</v>
-      </c>
-      <c r="L64">
-        <v>1</v>
-      </c>
-      <c r="M64" s="7">
-        <v>2</v>
-      </c>
-      <c r="N64">
-        <v>2</v>
-      </c>
-      <c r="O64" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>2.4</v>
-      </c>
-      <c r="B65">
-        <v>6</v>
-      </c>
-      <c r="C65" t="s">
-        <v>24</v>
-      </c>
-      <c r="D65" t="s">
-        <v>12</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="F65" t="s">
-        <v>24</v>
-      </c>
-      <c r="G65" t="s">
-        <v>9</v>
-      </c>
-      <c r="H65">
-        <v>1</v>
-      </c>
-      <c r="I65" t="s">
-        <v>9</v>
-      </c>
-      <c r="J65">
-        <v>1</v>
-      </c>
-      <c r="K65">
-        <v>1</v>
-      </c>
-      <c r="L65">
-        <v>1</v>
-      </c>
-      <c r="M65" s="7">
-        <v>2</v>
-      </c>
-      <c r="N65">
-        <v>2</v>
-      </c>
-      <c r="O65" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>2.4</v>
-      </c>
-      <c r="B66">
-        <v>6</v>
-      </c>
-      <c r="C66" t="s">
-        <v>24</v>
-      </c>
-      <c r="D66" t="s">
-        <v>13</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66" t="s">
-        <v>24</v>
-      </c>
-      <c r="G66" t="s">
-        <v>9</v>
-      </c>
-      <c r="H66">
-        <v>1</v>
-      </c>
-      <c r="I66" t="s">
-        <v>9</v>
-      </c>
-      <c r="J66">
-        <v>1</v>
-      </c>
-      <c r="K66">
-        <v>1</v>
-      </c>
-      <c r="L66">
-        <v>1</v>
-      </c>
-      <c r="M66" s="7">
-        <v>2</v>
-      </c>
-      <c r="N66">
-        <v>2</v>
-      </c>
-      <c r="O66" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>2.4</v>
-      </c>
-      <c r="B67">
-        <v>6</v>
-      </c>
-      <c r="C67" t="s">
-        <v>24</v>
-      </c>
-      <c r="D67" t="s">
-        <v>14</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67" t="s">
-        <v>24</v>
-      </c>
-      <c r="G67" t="s">
-        <v>9</v>
-      </c>
-      <c r="H67">
-        <v>1</v>
-      </c>
-      <c r="I67" t="s">
-        <v>9</v>
-      </c>
-      <c r="J67">
-        <v>1</v>
-      </c>
-      <c r="K67">
-        <v>1</v>
-      </c>
-      <c r="L67">
-        <v>1</v>
-      </c>
-      <c r="M67" s="7">
-        <v>2</v>
-      </c>
-      <c r="N67">
-        <v>2</v>
-      </c>
-      <c r="O67" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>2.4</v>
-      </c>
-      <c r="B68">
-        <v>6</v>
-      </c>
-      <c r="C68" t="s">
-        <v>24</v>
-      </c>
-      <c r="D68" t="s">
-        <v>15</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68" t="s">
-        <v>24</v>
-      </c>
-      <c r="G68" t="s">
-        <v>9</v>
-      </c>
-      <c r="H68">
-        <v>1</v>
-      </c>
-      <c r="I68" t="s">
-        <v>9</v>
-      </c>
-      <c r="J68">
-        <v>1</v>
-      </c>
-      <c r="K68">
-        <v>1</v>
-      </c>
-      <c r="L68">
-        <v>1</v>
-      </c>
-      <c r="M68" s="7">
-        <v>2</v>
-      </c>
-      <c r="N68">
-        <v>2</v>
-      </c>
-      <c r="O68" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>2.4</v>
-      </c>
-      <c r="B69">
-        <v>6</v>
-      </c>
-      <c r="C69" t="s">
-        <v>24</v>
-      </c>
-      <c r="D69" t="s">
-        <v>16</v>
-      </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-      <c r="F69" t="s">
-        <v>24</v>
-      </c>
-      <c r="G69" t="s">
-        <v>9</v>
-      </c>
-      <c r="H69">
-        <v>1</v>
-      </c>
-      <c r="I69" t="s">
-        <v>9</v>
-      </c>
-      <c r="J69">
-        <v>1</v>
-      </c>
-      <c r="K69">
-        <v>1</v>
-      </c>
-      <c r="L69">
-        <v>1</v>
-      </c>
-      <c r="M69" s="7">
-        <v>2</v>
-      </c>
-      <c r="N69">
-        <v>2</v>
-      </c>
-      <c r="O69" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>2.4</v>
-      </c>
-      <c r="B70">
-        <v>6</v>
-      </c>
-      <c r="C70" t="s">
-        <v>24</v>
-      </c>
-      <c r="D70" t="s">
-        <v>17</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70" t="s">
-        <v>24</v>
-      </c>
-      <c r="G70" t="s">
-        <v>9</v>
-      </c>
-      <c r="H70">
-        <v>1</v>
-      </c>
-      <c r="I70" t="s">
-        <v>9</v>
-      </c>
-      <c r="J70">
-        <v>1</v>
-      </c>
-      <c r="K70">
-        <v>1</v>
-      </c>
-      <c r="L70">
-        <v>1</v>
-      </c>
-      <c r="M70" s="7">
-        <v>2</v>
-      </c>
-      <c r="N70">
-        <v>2</v>
-      </c>
-      <c r="O70" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>2.4</v>
-      </c>
-      <c r="B71">
-        <v>6</v>
-      </c>
-      <c r="C71" t="s">
-        <v>24</v>
-      </c>
-      <c r="D71" t="s">
-        <v>18</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71" t="s">
-        <v>24</v>
-      </c>
-      <c r="G71" t="s">
-        <v>9</v>
-      </c>
-      <c r="H71">
-        <v>1</v>
-      </c>
-      <c r="I71" t="s">
-        <v>9</v>
-      </c>
-      <c r="J71">
-        <v>1</v>
-      </c>
-      <c r="K71">
-        <v>1</v>
-      </c>
-      <c r="L71">
-        <v>1</v>
-      </c>
-      <c r="M71" s="7">
-        <v>2</v>
-      </c>
-      <c r="N71">
-        <v>2</v>
-      </c>
-      <c r="O71" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>2.4</v>
-      </c>
-      <c r="B72">
-        <v>6</v>
-      </c>
-      <c r="C72" t="s">
-        <v>24</v>
-      </c>
-      <c r="D72" t="s">
-        <v>19</v>
-      </c>
-      <c r="E72">
-        <v>1</v>
-      </c>
-      <c r="F72" t="s">
-        <v>24</v>
-      </c>
-      <c r="G72" t="s">
-        <v>9</v>
-      </c>
-      <c r="H72">
-        <v>0</v>
-      </c>
-      <c r="I72" t="s">
-        <v>9</v>
-      </c>
-      <c r="J72">
-        <v>1</v>
-      </c>
-      <c r="K72">
-        <v>1</v>
-      </c>
-      <c r="L72">
-        <v>1</v>
-      </c>
-      <c r="M72" s="7">
-        <v>2</v>
-      </c>
-      <c r="N72">
-        <v>2</v>
-      </c>
-      <c r="O72" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>2.4</v>
-      </c>
-      <c r="B73">
-        <v>6</v>
-      </c>
-      <c r="C73" t="s">
-        <v>24</v>
-      </c>
-      <c r="D73" t="s">
-        <v>20</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73" t="s">
-        <v>24</v>
-      </c>
-      <c r="G73" t="s">
-        <v>9</v>
-      </c>
-      <c r="H73">
-        <v>1</v>
-      </c>
-      <c r="I73" t="s">
-        <v>9</v>
-      </c>
-      <c r="J73">
-        <v>1</v>
-      </c>
-      <c r="K73">
-        <v>1</v>
-      </c>
-      <c r="L73">
-        <v>1</v>
-      </c>
-      <c r="M73" s="7">
-        <v>2</v>
-      </c>
-      <c r="N73">
-        <v>2</v>
-      </c>
-      <c r="O73" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>2.4</v>
-      </c>
-      <c r="B74">
-        <v>8</v>
-      </c>
-      <c r="C74" t="s">
-        <v>24</v>
-      </c>
-      <c r="D74" t="s">
-        <v>8</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74" t="s">
-        <v>24</v>
-      </c>
-      <c r="G74" t="s">
-        <v>9</v>
-      </c>
-      <c r="H74">
-        <v>1</v>
-      </c>
-      <c r="I74" t="s">
-        <v>9</v>
-      </c>
-      <c r="J74">
-        <v>1</v>
-      </c>
-      <c r="K74">
-        <v>1</v>
-      </c>
-      <c r="L74">
-        <v>1</v>
-      </c>
-      <c r="M74" s="7">
-        <v>2</v>
-      </c>
-      <c r="N74">
-        <v>2</v>
-      </c>
-      <c r="O74" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>2.4</v>
-      </c>
-      <c r="B75">
-        <v>8</v>
-      </c>
-      <c r="C75" t="s">
-        <v>24</v>
-      </c>
-      <c r="D75" t="s">
-        <v>10</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75" t="s">
-        <v>24</v>
-      </c>
-      <c r="G75" t="s">
-        <v>9</v>
-      </c>
-      <c r="H75">
-        <v>1</v>
-      </c>
-      <c r="I75" t="s">
-        <v>9</v>
-      </c>
-      <c r="K75">
-        <v>1</v>
-      </c>
-      <c r="M75" s="7">
-        <v>2</v>
-      </c>
-      <c r="N75">
-        <v>1</v>
-      </c>
-      <c r="O75" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>2.4</v>
-      </c>
-      <c r="B76">
-        <v>8</v>
-      </c>
-      <c r="C76" t="s">
-        <v>24</v>
-      </c>
-      <c r="D76" t="s">
-        <v>11</v>
-      </c>
-      <c r="E76">
-        <v>1</v>
-      </c>
-      <c r="F76" t="s">
-        <v>24</v>
-      </c>
-      <c r="G76" t="s">
-        <v>9</v>
-      </c>
-      <c r="H76">
-        <v>0</v>
-      </c>
-      <c r="I76" t="s">
-        <v>9</v>
-      </c>
-      <c r="J76">
-        <v>1</v>
-      </c>
-      <c r="K76">
-        <v>1</v>
-      </c>
-      <c r="L76">
-        <v>1</v>
-      </c>
-      <c r="M76" s="7">
-        <v>2</v>
-      </c>
-      <c r="N76">
-        <v>2</v>
-      </c>
-      <c r="O76" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>2.4</v>
-      </c>
-      <c r="B77">
-        <v>8</v>
-      </c>
-      <c r="C77" t="s">
-        <v>24</v>
-      </c>
-      <c r="D77" t="s">
-        <v>12</v>
-      </c>
-      <c r="E77">
-        <v>1</v>
-      </c>
-      <c r="F77" t="s">
-        <v>24</v>
-      </c>
-      <c r="G77" t="s">
-        <v>9</v>
-      </c>
-      <c r="H77">
-        <v>0</v>
-      </c>
-      <c r="I77" t="s">
-        <v>9</v>
-      </c>
-      <c r="J77">
-        <v>1</v>
-      </c>
-      <c r="K77">
-        <v>1</v>
-      </c>
-      <c r="L77">
-        <v>1</v>
-      </c>
-      <c r="M77" s="7">
-        <v>2</v>
-      </c>
-      <c r="N77">
-        <v>2</v>
-      </c>
-      <c r="O77" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>2.4</v>
-      </c>
-      <c r="B78">
-        <v>8</v>
-      </c>
-      <c r="C78" t="s">
-        <v>24</v>
-      </c>
-      <c r="D78" t="s">
-        <v>13</v>
-      </c>
-      <c r="E78">
-        <v>1</v>
-      </c>
-      <c r="F78" t="s">
-        <v>24</v>
-      </c>
-      <c r="G78" t="s">
-        <v>9</v>
-      </c>
-      <c r="H78">
-        <v>0</v>
-      </c>
-      <c r="I78" t="s">
-        <v>9</v>
-      </c>
-      <c r="J78">
-        <v>1</v>
-      </c>
-      <c r="K78">
-        <v>1</v>
-      </c>
-      <c r="L78">
-        <v>1</v>
-      </c>
-      <c r="M78" s="7">
-        <v>2</v>
-      </c>
-      <c r="N78">
-        <v>2</v>
-      </c>
-      <c r="O78" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>2.4</v>
-      </c>
-      <c r="B79">
-        <v>8</v>
-      </c>
-      <c r="C79" t="s">
-        <v>24</v>
-      </c>
-      <c r="D79" t="s">
-        <v>14</v>
-      </c>
-      <c r="E79">
-        <v>1</v>
-      </c>
-      <c r="F79" t="s">
-        <v>24</v>
-      </c>
-      <c r="G79" t="s">
-        <v>9</v>
-      </c>
-      <c r="H79">
-        <v>0</v>
-      </c>
-      <c r="I79" t="s">
-        <v>9</v>
-      </c>
-      <c r="J79">
-        <v>1</v>
-      </c>
-      <c r="K79">
-        <v>1</v>
-      </c>
-      <c r="L79">
-        <v>1</v>
-      </c>
-      <c r="M79" s="7">
-        <v>2</v>
-      </c>
-      <c r="N79">
-        <v>2</v>
-      </c>
-      <c r="O79" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>2.4</v>
-      </c>
-      <c r="B80">
-        <v>8</v>
-      </c>
-      <c r="C80" t="s">
-        <v>24</v>
-      </c>
-      <c r="D80" t="s">
-        <v>15</v>
-      </c>
-      <c r="E80">
-        <v>1</v>
-      </c>
-      <c r="F80" t="s">
-        <v>24</v>
-      </c>
-      <c r="G80" t="s">
-        <v>9</v>
-      </c>
-      <c r="H80">
-        <v>0</v>
-      </c>
-      <c r="I80" t="s">
-        <v>9</v>
-      </c>
-      <c r="J80">
-        <v>1</v>
-      </c>
-      <c r="K80">
-        <v>1</v>
-      </c>
-      <c r="L80">
-        <v>1</v>
-      </c>
-      <c r="M80" s="7">
-        <v>2</v>
-      </c>
-      <c r="N80">
-        <v>2</v>
-      </c>
-      <c r="O80" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>2.4</v>
-      </c>
-      <c r="B81">
-        <v>8</v>
-      </c>
-      <c r="C81" t="s">
-        <v>24</v>
-      </c>
-      <c r="D81" t="s">
-        <v>16</v>
-      </c>
-      <c r="E81">
-        <v>1</v>
-      </c>
-      <c r="F81" t="s">
-        <v>24</v>
-      </c>
-      <c r="G81" t="s">
-        <v>9</v>
-      </c>
-      <c r="H81">
-        <v>0</v>
-      </c>
-      <c r="I81" t="s">
-        <v>9</v>
-      </c>
-      <c r="J81">
-        <v>1</v>
-      </c>
-      <c r="K81">
-        <v>1</v>
-      </c>
-      <c r="L81">
-        <v>1</v>
-      </c>
-      <c r="M81" s="7">
-        <v>2</v>
-      </c>
-      <c r="N81">
-        <v>2</v>
-      </c>
-      <c r="O81" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>2.4</v>
-      </c>
-      <c r="B82">
-        <v>8</v>
-      </c>
-      <c r="C82" t="s">
-        <v>24</v>
-      </c>
-      <c r="D82" t="s">
-        <v>17</v>
-      </c>
-      <c r="E82">
-        <v>1</v>
-      </c>
-      <c r="F82" t="s">
-        <v>24</v>
-      </c>
-      <c r="G82" t="s">
-        <v>9</v>
-      </c>
-      <c r="H82">
-        <v>0</v>
-      </c>
-      <c r="I82" t="s">
-        <v>9</v>
-      </c>
-      <c r="J82">
-        <v>1</v>
-      </c>
-      <c r="K82">
-        <v>1</v>
-      </c>
-      <c r="L82">
-        <v>1</v>
-      </c>
-      <c r="M82" s="7">
-        <v>2</v>
-      </c>
-      <c r="N82">
-        <v>2</v>
-      </c>
-      <c r="O82" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>2.4</v>
-      </c>
-      <c r="B83">
-        <v>8</v>
-      </c>
-      <c r="C83" t="s">
-        <v>24</v>
-      </c>
-      <c r="D83" t="s">
-        <v>18</v>
-      </c>
-      <c r="E83">
-        <v>1</v>
-      </c>
-      <c r="F83" t="s">
-        <v>24</v>
-      </c>
-      <c r="G83" t="s">
-        <v>9</v>
-      </c>
-      <c r="H83">
-        <v>0</v>
-      </c>
-      <c r="I83" t="s">
-        <v>9</v>
-      </c>
-      <c r="J83">
-        <v>1</v>
-      </c>
-      <c r="K83">
-        <v>1</v>
-      </c>
-      <c r="L83">
-        <v>1</v>
-      </c>
-      <c r="M83" s="7">
-        <v>2</v>
-      </c>
-      <c r="N83">
-        <v>2</v>
-      </c>
-      <c r="O83" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>2.4</v>
-      </c>
-      <c r="B84">
-        <v>8</v>
-      </c>
-      <c r="C84" t="s">
-        <v>24</v>
-      </c>
-      <c r="D84" t="s">
-        <v>19</v>
-      </c>
-      <c r="E84">
-        <v>1</v>
-      </c>
-      <c r="F84" t="s">
-        <v>24</v>
-      </c>
-      <c r="G84" t="s">
-        <v>9</v>
-      </c>
-      <c r="H84">
-        <v>0</v>
-      </c>
-      <c r="I84" t="s">
-        <v>9</v>
-      </c>
-      <c r="J84">
-        <v>1</v>
-      </c>
-      <c r="K84">
-        <v>1</v>
-      </c>
-      <c r="L84">
-        <v>1</v>
-      </c>
-      <c r="M84" s="7">
-        <v>2</v>
-      </c>
-      <c r="N84">
-        <v>2</v>
-      </c>
-      <c r="O84" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>2.4</v>
-      </c>
-      <c r="B85">
-        <v>8</v>
-      </c>
-      <c r="C85" t="s">
-        <v>24</v>
-      </c>
-      <c r="D85" t="s">
-        <v>20</v>
-      </c>
-      <c r="E85">
-        <v>1</v>
-      </c>
-      <c r="F85" t="s">
-        <v>24</v>
-      </c>
-      <c r="G85" t="s">
-        <v>9</v>
-      </c>
-      <c r="H85">
-        <v>0</v>
-      </c>
-      <c r="I85" t="s">
-        <v>9</v>
-      </c>
-      <c r="J85">
-        <v>1</v>
-      </c>
-      <c r="K85">
-        <v>1</v>
-      </c>
-      <c r="L85">
-        <v>1</v>
-      </c>
-      <c r="M85" s="7">
-        <v>2</v>
-      </c>
-      <c r="N85">
-        <v>2</v>
-      </c>
-      <c r="O85" t="s">
-        <v>33</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="K1:K61"/>
   <sortState ref="A2:N25">
     <sortCondition ref="B1"/>
   </sortState>
@@ -18535,7 +15735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O97"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A63" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:O97"/>
     </sheetView>
   </sheetViews>
@@ -22825,9 +20025,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O157"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:O157"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J146" sqref="J133:J146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29755,8 +26955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:O61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29840,7 +27040,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -29887,7 +27087,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -29934,7 +27134,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -29981,7 +27181,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -30028,7 +27228,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -30075,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -30122,7 +27322,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -30169,7 +27369,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -30216,7 +27416,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -30263,7 +27463,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -30310,7 +27510,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -30357,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -30404,7 +27604,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -30451,7 +27651,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -30498,7 +27698,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -30545,7 +27745,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -30592,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -30639,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -30686,7 +27886,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -30733,7 +27933,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -30780,7 +27980,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -30827,7 +28027,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -30874,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -30921,7 +28121,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -30968,7 +28168,7 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -31015,7 +28215,7 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -31062,7 +28262,7 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -31109,7 +28309,7 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -31156,7 +28356,7 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -31203,7 +28403,7 @@
         <v>0</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -31250,7 +28450,7 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -31297,7 +28497,7 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -31344,7 +28544,7 @@
         <v>0</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -31391,7 +28591,7 @@
         <v>0</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -31438,7 +28638,7 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -31485,7 +28685,7 @@
         <v>0</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -31532,7 +28732,7 @@
         <v>0</v>
       </c>
       <c r="K38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -31579,7 +28779,7 @@
         <v>0</v>
       </c>
       <c r="K39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -31626,7 +28826,7 @@
         <v>0</v>
       </c>
       <c r="K40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -31673,7 +28873,7 @@
         <v>0</v>
       </c>
       <c r="K41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -31720,7 +28920,7 @@
         <v>0</v>
       </c>
       <c r="K42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42">
         <v>0</v>
@@ -31767,7 +28967,7 @@
         <v>0</v>
       </c>
       <c r="K43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43">
         <v>0</v>
@@ -31814,7 +29014,7 @@
         <v>0</v>
       </c>
       <c r="K44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44">
         <v>0</v>
@@ -31861,7 +29061,7 @@
         <v>0</v>
       </c>
       <c r="K45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45">
         <v>0</v>
@@ -31908,7 +29108,7 @@
         <v>0</v>
       </c>
       <c r="K46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46">
         <v>0</v>
@@ -31955,7 +29155,7 @@
         <v>0</v>
       </c>
       <c r="K47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47">
         <v>0</v>
@@ -32002,7 +29202,7 @@
         <v>0</v>
       </c>
       <c r="K48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48">
         <v>0</v>
@@ -32049,7 +29249,7 @@
         <v>0</v>
       </c>
       <c r="K49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49">
         <v>0</v>
@@ -32096,7 +29296,7 @@
         <v>0</v>
       </c>
       <c r="K50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50">
         <v>0</v>
@@ -32143,7 +29343,7 @@
         <v>0</v>
       </c>
       <c r="K51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L51">
         <v>0</v>
@@ -32190,7 +29390,7 @@
         <v>0</v>
       </c>
       <c r="K52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52">
         <v>0</v>
@@ -32237,7 +29437,7 @@
         <v>0</v>
       </c>
       <c r="K53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L53">
         <v>0</v>
@@ -32284,7 +29484,7 @@
         <v>0</v>
       </c>
       <c r="K54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L54">
         <v>0</v>
@@ -32331,7 +29531,7 @@
         <v>0</v>
       </c>
       <c r="K55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55">
         <v>0</v>
@@ -32378,7 +29578,7 @@
         <v>0</v>
       </c>
       <c r="K56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L56">
         <v>0</v>
@@ -32425,7 +29625,7 @@
         <v>0</v>
       </c>
       <c r="K57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L57">
         <v>0</v>
@@ -32472,7 +29672,7 @@
         <v>0</v>
       </c>
       <c r="K58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L58">
         <v>0</v>
@@ -32519,7 +29719,7 @@
         <v>0</v>
       </c>
       <c r="K59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L59">
         <v>0</v>
@@ -32566,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="K60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L60">
         <v>0</v>
@@ -32613,7 +29813,7 @@
         <v>0</v>
       </c>
       <c r="K61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61">
         <v>0</v>
